--- a/Input/MATSimInputFigure4p4l.xlsx
+++ b/Input/MATSimInputFigure4p4l.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D873AEB-C96B-49E8-B633-A707C239045B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC2716D-C074-4C5D-818A-580F886B5528}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,11 +202,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,9 +238,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_LaneData" xfId="1" xr:uid="{178340D6-FE69-4EBB-9304-F0FD075B6FBD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,6 +257,1221 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LaneData!$G$2:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LaneData!$Q$2:$Q$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23099999153800374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45499998333243141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67199997538328304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8609999683864894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0289999621764305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1759999567531061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2669999535313519</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3229999515358386</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3439999507665661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2809999530743834</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1689999571771694</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0079999630749237</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73499997307546527</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3989999853838242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44400001378450504</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8880000275690092</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1693333687775027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4506667099859956</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5933333796857727</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7360000493855499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7753025489574283</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7920000479022629</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.729333377786495</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.666666707670728</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.537333369248131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4080000308255336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2360000251634027</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0640000195012727</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87333334766690385</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.68266667583253504</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.49733333889322484</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31200000195391464</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.15600000097695688</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.11399999938625838</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.20999999884981602</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.28799999839067447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.33399999807930225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.36599999783840009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.38399999766796822</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.3779999976316466</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.3619999978266033</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.33599999825283855</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.29399999847123381</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.24599999857181665</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19199999855458705</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.12999999898641068</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-6.5999999468214554E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-651B-4853-8092-9BDBC203AD23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LaneData!$S$3:$S$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LaneData!$T$3:$T$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-651B-4853-8092-9BDBC203AD23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="391900888"/>
+        <c:axId val="391901544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="391900888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391901544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="391901544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391900888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>291702</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>51197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC51CA8B-3389-4E17-AF0A-F41B87287DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,9 +1776,7 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -796,9 +2039,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:O584"/>
+  <dimension ref="A1:T640"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -812,7 +2057,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,7 +2104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -905,8 +2150,14 @@
       <c r="O2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1">
+        <f>I2*2</f>
+        <v>0</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -952,8 +2203,18 @@
       <c r="O3" s="6">
         <v>0.1154999957637628</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q52" si="0">I3*2</f>
+        <v>0.23099999153800374</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -993,8 +2254,18 @@
       <c r="O4" s="6">
         <v>0.23099999152752559</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45499998333243141</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1034,8 +2305,18 @@
       <c r="O5" s="6">
         <v>0.34649998729128839</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.67199997538328304</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1075,8 +2356,18 @@
       <c r="O6" s="6">
         <v>0.46199998305505119</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8609999683864894</v>
+      </c>
+      <c r="S6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1116,8 +2407,18 @@
       <c r="O7" s="6">
         <v>0.57749997881881399</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0289999621764305</v>
+      </c>
+      <c r="S7" s="7">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1157,8 +2458,18 @@
       <c r="O8" s="6">
         <v>0.69299997458257678</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1759999567531061</v>
+      </c>
+      <c r="S8" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1198,8 +2509,18 @@
       <c r="O9" s="6">
         <v>0.80149997059461531</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2669999535313519</v>
+      </c>
+      <c r="S9" s="7">
+        <v>3</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1231,8 +2552,18 @@
       <c r="O10" s="6">
         <v>0.90999996660665394</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3229999515358386</v>
+      </c>
+      <c r="S10" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1264,8 +2595,18 @@
       <c r="O11" s="6">
         <v>1.0184999626186926</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3439999507665661</v>
+      </c>
+      <c r="S11" s="7">
+        <v>4</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1297,8 +2638,18 @@
       <c r="O12" s="6">
         <v>1.1269999586307311</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2809999530743834</v>
+      </c>
+      <c r="S12" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1330,8 +2681,18 @@
       <c r="O13" s="6">
         <v>1.2354999546427696</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1689999571771694</v>
+      </c>
+      <c r="S13" s="7">
+        <v>5</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1363,8 +2724,18 @@
       <c r="O14" s="6">
         <v>1.3439999506548084</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0079999630749237</v>
+      </c>
+      <c r="S14" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1396,8 +2767,18 @@
       <c r="O15" s="6">
         <v>1.4384999471322555</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73499997307546527</v>
+      </c>
+      <c r="S15" s="7">
+        <v>6</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1429,8 +2810,18 @@
       <c r="O16" s="6">
         <v>1.5329999436097026</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3989999853838242</v>
+      </c>
+      <c r="S16" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="T16" s="7">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1462,8 +2853,18 @@
       <c r="O17" s="6">
         <v>1.6274999400871497</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>7</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1495,8 +2896,18 @@
       <c r="O18" s="6">
         <v>1.7219999365645968</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44400001378450504</v>
+      </c>
+      <c r="S18" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1528,8 +2939,18 @@
       <c r="O19" s="6">
         <v>1.8164999330420439</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8880000275690092</v>
+      </c>
+      <c r="S19" s="7">
+        <v>8</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1561,8 +2982,18 @@
       <c r="O20" s="6">
         <v>1.910999929519491</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1693333687775027</v>
+      </c>
+      <c r="S20" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="T20" s="7">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1594,8 +3025,18 @@
       <c r="O21" s="6">
         <v>1.984499926808702</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4506667099859956</v>
+      </c>
+      <c r="S21" s="7">
+        <v>9</v>
+      </c>
+      <c r="T21" s="7">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1627,8 +3068,18 @@
       <c r="O22" s="6">
         <v>2.057999924097913</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5933333796857727</v>
+      </c>
+      <c r="S22" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1660,8 +3111,18 @@
       <c r="O23" s="6">
         <v>2.1314999213871237</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7360000493855499</v>
+      </c>
+      <c r="S23" s="7">
+        <v>10</v>
+      </c>
+      <c r="T23" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1693,8 +3154,18 @@
       <c r="O24" s="6">
         <v>2.2049999186763349</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7753025489574283</v>
+      </c>
+      <c r="S24" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="T24" s="7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1726,8 +3197,18 @@
       <c r="O25" s="6">
         <v>2.2784999159655457</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7920000479022629</v>
+      </c>
+      <c r="S25" s="7">
+        <v>11</v>
+      </c>
+      <c r="T25" s="7">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1759,8 +3240,18 @@
       <c r="O26" s="6">
         <v>2.3519999132547564</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.729333377786495</v>
+      </c>
+      <c r="S26" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="T26" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1792,8 +3283,18 @@
       <c r="O27" s="6">
         <v>2.3974999116130289</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.666666707670728</v>
+      </c>
+      <c r="S27" s="7">
+        <v>12</v>
+      </c>
+      <c r="T27" s="7">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1825,8 +3326,18 @@
       <c r="O28" s="6">
         <v>2.4429999099713013</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.537333369248131</v>
+      </c>
+      <c r="S28" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1858,8 +3369,18 @@
       <c r="O29" s="6">
         <v>2.4884999083295742</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4080000308255336</v>
+      </c>
+      <c r="S29" s="7">
+        <v>13</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1891,8 +3412,18 @@
       <c r="O30" s="6">
         <v>2.5339999066878467</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2360000251634027</v>
+      </c>
+      <c r="S30" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1924,8 +3455,18 @@
       <c r="O31" s="6">
         <v>2.5794999050461191</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q31" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0640000195012727</v>
+      </c>
+      <c r="S31" s="7">
+        <v>14</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1957,8 +3498,18 @@
       <c r="O32" s="6">
         <v>2.624999903404392</v>
       </c>
-    </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87333334766690385</v>
+      </c>
+      <c r="S32" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F33" s="3"/>
       <c r="G33" s="3">
         <v>31</v>
@@ -1987,8 +3538,18 @@
       <c r="O33" s="6">
         <v>2.6354999030086961</v>
       </c>
-    </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68266667583253504</v>
+      </c>
+      <c r="S33" s="7">
+        <v>15</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
       <c r="G34" s="3">
         <v>32</v>
@@ -2017,8 +3578,18 @@
       <c r="O34" s="6">
         <v>2.6459999026130006</v>
       </c>
-    </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49733333889322484</v>
+      </c>
+      <c r="S34" s="7">
+        <v>15</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F35" s="3"/>
       <c r="G35" s="3">
         <v>33</v>
@@ -2047,8 +3618,18 @@
       <c r="O35" s="6">
         <v>2.6564999022173046</v>
       </c>
-    </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31200000195391464</v>
+      </c>
+      <c r="S35" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="36" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F36" s="3"/>
       <c r="G36" s="3">
         <v>34</v>
@@ -2077,8 +3658,18 @@
       <c r="O36" s="6">
         <v>2.6669999018216086</v>
       </c>
-    </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15600000097695688</v>
+      </c>
+      <c r="S36" s="7">
+        <v>16</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="37" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F37" s="3"/>
       <c r="G37" s="3">
         <v>35</v>
@@ -2107,8 +3698,18 @@
       <c r="O37" s="6">
         <v>2.6774999014259131</v>
       </c>
-    </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="T37" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <v>36</v>
@@ -2137,8 +3738,18 @@
       <c r="O38" s="6">
         <v>2.6879999010302171</v>
       </c>
-    </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q38" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.11399999938625838</v>
+      </c>
+      <c r="S38" s="7">
+        <v>17</v>
+      </c>
+      <c r="T38" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="39" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F39" s="3"/>
       <c r="G39" s="3">
         <v>37</v>
@@ -2167,8 +3778,18 @@
       <c r="O39" s="6">
         <v>2.6564999021823796</v>
       </c>
-    </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q39" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.20999999884981602</v>
+      </c>
+      <c r="S39" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="T39" s="7">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="40" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F40" s="3"/>
       <c r="G40" s="3">
         <v>38</v>
@@ -2197,8 +3818,18 @@
       <c r="O40" s="6">
         <v>2.6249999033345421</v>
       </c>
-    </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q40" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.28799999839067447</v>
+      </c>
+      <c r="S40" s="7">
+        <v>18</v>
+      </c>
+      <c r="T40" s="7">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="41" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F41" s="3"/>
       <c r="G41" s="3">
         <v>39</v>
@@ -2227,8 +3858,18 @@
       <c r="O41" s="6">
         <v>2.5934999044867051</v>
       </c>
-    </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q41" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.33399999807930225</v>
+      </c>
+      <c r="S41" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="42" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F42" s="3"/>
       <c r="G42" s="3">
         <v>40</v>
@@ -2257,8 +3898,18 @@
       <c r="O42" s="6">
         <v>2.5619999056388676</v>
       </c>
-    </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q42" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.36599999783840009</v>
+      </c>
+      <c r="S42" s="7">
+        <v>19</v>
+      </c>
+      <c r="T42" s="7">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="43" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F43" s="3"/>
       <c r="G43" s="3">
         <v>41</v>
@@ -2287,8 +3938,18 @@
       <c r="O43" s="6">
         <v>2.5304999067910305</v>
       </c>
-    </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q43" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.38399999766796822</v>
+      </c>
+      <c r="S43" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="T43" s="7">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="44" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
       <c r="G44" s="3">
         <v>42</v>
@@ -2317,8 +3978,18 @@
       <c r="O44" s="6">
         <v>2.4989999079431935</v>
       </c>
-    </row>
-    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q44" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.3779999976316466</v>
+      </c>
+      <c r="S44" s="7">
+        <v>20</v>
+      </c>
+      <c r="T44" s="7">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="45" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
       <c r="G45" s="3">
         <v>43</v>
@@ -2347,8 +4018,18 @@
       <c r="O45" s="6">
         <v>2.4184999109031304</v>
       </c>
-    </row>
-    <row r="46" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q45" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.3619999978266033</v>
+      </c>
+      <c r="S45" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="T45" s="7">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="46" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
       <c r="G46" s="3">
         <v>44</v>
@@ -2377,8 +4058,18 @@
       <c r="O46" s="6">
         <v>2.3379999138630669</v>
       </c>
-    </row>
-    <row r="47" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q46" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.33599999825283855</v>
+      </c>
+      <c r="S46" s="7">
+        <v>21</v>
+      </c>
+      <c r="T46" s="7">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="47" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F47" s="3"/>
       <c r="G47" s="3">
         <v>45</v>
@@ -2407,8 +4098,18 @@
       <c r="O47" s="6">
         <v>2.2574999168230034</v>
       </c>
-    </row>
-    <row r="48" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q47" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.29399999847123381</v>
+      </c>
+      <c r="S47" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="T47" s="7">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="48" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F48" s="3"/>
       <c r="G48" s="3">
         <v>46</v>
@@ -2437,8 +4138,18 @@
       <c r="O48" s="6">
         <v>2.1769999197829404</v>
       </c>
-    </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q48" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.24599999857181665</v>
+      </c>
+      <c r="S48" s="7">
+        <v>22</v>
+      </c>
+      <c r="T48" s="7">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="49" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F49" s="3"/>
       <c r="G49" s="3">
         <v>47</v>
@@ -2467,8 +4178,18 @@
       <c r="O49" s="6">
         <v>2.0964999227428773</v>
       </c>
-    </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q49" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.19199999855458705</v>
+      </c>
+      <c r="S49" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="T49" s="7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="50" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F50" s="3"/>
       <c r="G50" s="3">
         <v>48</v>
@@ -2497,8 +4218,18 @@
       <c r="O50" s="6">
         <v>2.0159999257028129</v>
       </c>
-    </row>
-    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q50" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.12999999898641068</v>
+      </c>
+      <c r="S50" s="7">
+        <v>23</v>
+      </c>
+      <c r="T50" s="7">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="51" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F51" s="3"/>
       <c r="G51" s="3">
         <v>49</v>
@@ -2527,8 +4258,18 @@
       <c r="O51" s="6">
         <v>1.8794999307304421</v>
       </c>
-    </row>
-    <row r="52" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q51" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.5999999468214554E-2</v>
+      </c>
+      <c r="S51" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="T51" s="7">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="52" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F52" s="3"/>
       <c r="G52" s="3">
         <v>50</v>
@@ -2557,8 +4298,18 @@
       <c r="O52" s="6">
         <v>1.7429999357580703</v>
       </c>
-    </row>
-    <row r="53" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="Q52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="7">
+        <v>24</v>
+      </c>
+      <c r="T52" s="7">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="53" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F53" s="3"/>
       <c r="G53" s="3">
         <v>51</v>
@@ -2583,8 +4334,14 @@
       <c r="O53" s="6">
         <v>1.6064999407856986</v>
       </c>
-    </row>
-    <row r="54" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S53" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="T53" s="7">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="54" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F54" s="3"/>
       <c r="G54" s="3">
         <v>52</v>
@@ -2609,8 +4366,14 @@
       <c r="O54" s="6">
         <v>1.4699999458133268</v>
       </c>
-    </row>
-    <row r="55" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S54" s="7">
+        <v>25</v>
+      </c>
+      <c r="T54" s="7">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="55" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F55" s="3"/>
       <c r="G55" s="3">
         <v>53</v>
@@ -2635,8 +4398,14 @@
       <c r="O55" s="6">
         <v>1.333499950840956</v>
       </c>
-    </row>
-    <row r="56" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S55" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="T55" s="7">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="56" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
       <c r="G56" s="3">
         <v>54</v>
@@ -2661,8 +4430,14 @@
       <c r="O56" s="6">
         <v>1.1969999558685842</v>
       </c>
-    </row>
-    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S56" s="7">
+        <v>26</v>
+      </c>
+      <c r="T56" s="7">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="57" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F57" s="3"/>
       <c r="G57" s="3">
         <v>55</v>
@@ -2687,8 +4462,14 @@
       <c r="O57" s="6">
         <v>0.99749996322382017</v>
       </c>
-    </row>
-    <row r="58" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S57" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="T57" s="7">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="58" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F58" s="3"/>
       <c r="G58" s="3">
         <v>56</v>
@@ -2713,8 +4494,14 @@
       <c r="O58" s="6">
         <v>0.79799997057905614</v>
       </c>
-    </row>
-    <row r="59" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S58" s="7">
+        <v>27</v>
+      </c>
+      <c r="T58" s="7">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="59" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F59" s="3"/>
       <c r="G59" s="3">
         <v>57</v>
@@ -2739,8 +4526,14 @@
       <c r="O59" s="6">
         <v>0.5984999779342921</v>
       </c>
-    </row>
-    <row r="60" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S59" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="T59" s="7">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="60" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F60" s="3"/>
       <c r="G60" s="3">
         <v>58</v>
@@ -2765,8 +4558,14 @@
       <c r="O60" s="6">
         <v>0.39899998528952807</v>
       </c>
-    </row>
-    <row r="61" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S60" s="7">
+        <v>28</v>
+      </c>
+      <c r="T60" s="7">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="61" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F61" s="3"/>
       <c r="G61" s="3">
         <v>59</v>
@@ -2791,8 +4590,14 @@
       <c r="O61" s="6">
         <v>0.19949999264476403</v>
       </c>
-    </row>
-    <row r="62" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S61" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="T61" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F62" s="3"/>
       <c r="G62" s="3">
         <v>60</v>
@@ -2817,8 +4622,14 @@
       <c r="O62" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S62" s="7">
+        <v>29</v>
+      </c>
+      <c r="T62" s="7">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="63" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F63" s="3"/>
       <c r="G63" s="3">
         <v>61</v>
@@ -2843,8 +4654,14 @@
       <c r="O63" s="6">
         <v>0.22200000693940147</v>
       </c>
-    </row>
-    <row r="64" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S63" s="7">
+        <v>29.5</v>
+      </c>
+      <c r="T63" s="7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="64" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F64" s="3"/>
       <c r="G64" s="3">
         <v>62</v>
@@ -2869,8 +4686,14 @@
       <c r="O64" s="6">
         <v>0.44400001387880117</v>
       </c>
-    </row>
-    <row r="65" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S64" s="7">
+        <v>30</v>
+      </c>
+      <c r="T64" s="7">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="65" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F65" s="3"/>
       <c r="G65" s="3">
         <v>63</v>
@@ -2895,8 +4718,14 @@
       <c r="O65" s="6">
         <v>0.66600002081820264</v>
       </c>
-    </row>
-    <row r="66" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S65" s="7">
+        <v>30.5</v>
+      </c>
+      <c r="T65" s="7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="66" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F66" s="3"/>
       <c r="G66" s="3">
         <v>64</v>
@@ -2921,8 +4750,14 @@
       <c r="O66" s="6">
         <v>0.88800002775760234</v>
       </c>
-    </row>
-    <row r="67" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S66" s="7">
+        <v>31</v>
+      </c>
+      <c r="T66" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="67" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F67" s="3"/>
       <c r="G67" s="3">
         <v>65</v>
@@ -2947,8 +4782,14 @@
       <c r="O67" s="6">
         <v>1.110000034697002</v>
       </c>
-    </row>
-    <row r="68" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S67" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="T67" s="7">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="68" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F68" s="3"/>
       <c r="G68" s="3">
         <v>66</v>
@@ -2973,8 +4814,14 @@
       <c r="O68" s="6">
         <v>1.3320000416364035</v>
       </c>
-    </row>
-    <row r="69" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S68" s="7">
+        <v>32</v>
+      </c>
+      <c r="T68" s="7">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="69" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F69" s="3"/>
       <c r="G69" s="3">
         <v>67</v>
@@ -2999,8 +4846,14 @@
       <c r="O69" s="6">
         <v>1.5540000485758032</v>
       </c>
-    </row>
-    <row r="70" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S69" s="7">
+        <v>32.5</v>
+      </c>
+      <c r="T69" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="70" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F70" s="3"/>
       <c r="G70" s="3">
         <v>68</v>
@@ -3025,8 +4878,14 @@
       <c r="O70" s="6">
         <v>1.7760000555152047</v>
       </c>
-    </row>
-    <row r="71" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S70" s="7">
+        <v>33</v>
+      </c>
+      <c r="T70" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="71" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F71" s="3"/>
       <c r="G71" s="3">
         <v>69</v>
@@ -3051,8 +4910,14 @@
       <c r="O71" s="6">
         <v>1.9166667261468096</v>
       </c>
-    </row>
-    <row r="72" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S71" s="7">
+        <v>33.5</v>
+      </c>
+      <c r="T71" s="7">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="72" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F72" s="3"/>
       <c r="G72" s="3">
         <v>70</v>
@@ -3077,8 +4942,14 @@
       <c r="O72" s="6">
         <v>2.0573333967784126</v>
       </c>
-    </row>
-    <row r="73" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S72" s="7">
+        <v>34</v>
+      </c>
+      <c r="T72" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F73" s="3"/>
       <c r="G73" s="3">
         <v>71</v>
@@ -3103,8 +4974,14 @@
       <c r="O73" s="6">
         <v>2.1980000674100175</v>
       </c>
-    </row>
-    <row r="74" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S73" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="T73" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F74" s="3"/>
       <c r="G74" s="3">
         <v>72</v>
@@ -3129,8 +5006,14 @@
       <c r="O74" s="6">
         <v>2.3386667380416206</v>
       </c>
-    </row>
-    <row r="75" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S74" s="7">
+        <v>35</v>
+      </c>
+      <c r="T74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F75" s="3"/>
       <c r="G75" s="3">
         <v>73</v>
@@ -3155,8 +5038,14 @@
       <c r="O75" s="6">
         <v>2.4793334086732255</v>
       </c>
-    </row>
-    <row r="76" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S75" s="7">
+        <v>35</v>
+      </c>
+      <c r="T75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F76" s="3"/>
       <c r="G76" s="3">
         <v>74</v>
@@ -3181,8 +5070,14 @@
       <c r="O76" s="6">
         <v>2.6200000793048304</v>
       </c>
-    </row>
-    <row r="77" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S76" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="T76" s="7">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="77" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F77" s="3"/>
       <c r="G77" s="3">
         <v>75</v>
@@ -3207,8 +5102,14 @@
       <c r="O77" s="6">
         <v>2.7606667499364335</v>
       </c>
-    </row>
-    <row r="78" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S77" s="7">
+        <v>36</v>
+      </c>
+      <c r="T77" s="7">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="78" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F78" s="3"/>
       <c r="G78" s="3">
         <v>76</v>
@@ -3233,8 +5134,14 @@
       <c r="O78" s="6">
         <v>2.9013334205680374</v>
       </c>
-    </row>
-    <row r="79" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S78" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="T78" s="7">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="79" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F79" s="3"/>
       <c r="G79" s="3">
         <v>77</v>
@@ -3259,8 +5166,14 @@
       <c r="O79" s="6">
         <v>2.9726667554289854</v>
       </c>
-    </row>
-    <row r="80" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S79" s="7">
+        <v>37</v>
+      </c>
+      <c r="T79" s="7">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="80" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F80" s="3"/>
       <c r="G80" s="3">
         <v>78</v>
@@ -3285,8 +5198,14 @@
       <c r="O80" s="6">
         <v>3.0440000902899333</v>
       </c>
-    </row>
-    <row r="81" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S80" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="T80" s="7">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="81" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F81" s="3"/>
       <c r="G81" s="3">
         <v>79</v>
@@ -3311,8 +5230,14 @@
       <c r="O81" s="6">
         <v>3.1153334251508813</v>
       </c>
-    </row>
-    <row r="82" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S81" s="7">
+        <v>38</v>
+      </c>
+      <c r="T81" s="7">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F82" s="3"/>
       <c r="G82" s="3">
         <v>80</v>
@@ -3337,8 +5262,14 @@
       <c r="O82" s="6">
         <v>3.1866667600118292</v>
       </c>
-    </row>
-    <row r="83" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S82" s="7">
+        <v>38.5</v>
+      </c>
+      <c r="T82" s="7">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="83" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F83" s="3"/>
       <c r="G83" s="3">
         <v>81</v>
@@ -3363,8 +5294,14 @@
       <c r="O83" s="6">
         <v>3.2580000948727772</v>
       </c>
-    </row>
-    <row r="84" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S83" s="7">
+        <v>39</v>
+      </c>
+      <c r="T83" s="7">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="84" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F84" s="3"/>
       <c r="G84" s="3">
         <v>82</v>
@@ -3389,8 +5326,14 @@
       <c r="O84" s="6">
         <v>3.3293334297337251</v>
       </c>
-    </row>
-    <row r="85" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S84" s="7">
+        <v>39.5</v>
+      </c>
+      <c r="T84" s="7">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="85" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F85" s="3"/>
       <c r="G85" s="3">
         <v>83</v>
@@ -3415,8 +5358,14 @@
       <c r="O85" s="6">
         <v>3.4006667645946731</v>
       </c>
-    </row>
-    <row r="86" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S85" s="7">
+        <v>40</v>
+      </c>
+      <c r="T85" s="7">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="86" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F86" s="3"/>
       <c r="G86" s="3">
         <v>84</v>
@@ -3441,8 +5390,14 @@
       <c r="O86" s="6">
         <v>3.4720000994556219</v>
       </c>
-    </row>
-    <row r="87" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S86" s="7">
+        <v>40.5</v>
+      </c>
+      <c r="T86" s="7">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="87" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F87" s="3"/>
       <c r="G87" s="3">
         <v>85</v>
@@ -3467,8 +5422,14 @@
       <c r="O87" s="6">
         <v>3.4916513492410228</v>
       </c>
-    </row>
-    <row r="88" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S87" s="7">
+        <v>41</v>
+      </c>
+      <c r="T87" s="7">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="88" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F88" s="3"/>
       <c r="G88" s="3">
         <v>86</v>
@@ -3493,8 +5454,14 @@
       <c r="O88" s="6">
         <v>3.5113025990264237</v>
       </c>
-    </row>
-    <row r="89" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S88" s="7">
+        <v>41.5</v>
+      </c>
+      <c r="T88" s="7">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="89" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F89" s="3"/>
       <c r="G89" s="3">
         <v>87</v>
@@ -3519,8 +5486,14 @@
       <c r="O89" s="6">
         <v>3.5309538488118255</v>
       </c>
-    </row>
-    <row r="90" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S89" s="7">
+        <v>42</v>
+      </c>
+      <c r="T89" s="7">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="90" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F90" s="3"/>
       <c r="G90" s="3">
         <v>88</v>
@@ -3545,8 +5518,14 @@
       <c r="O90" s="6">
         <v>3.5506050985972264</v>
       </c>
-    </row>
-    <row r="91" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S90" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="T90" s="7">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="91" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F91" s="3"/>
       <c r="G91" s="3">
         <v>89</v>
@@ -3571,8 +5550,14 @@
       <c r="O91" s="6">
         <v>3.5702563483826273</v>
       </c>
-    </row>
-    <row r="92" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S91" s="7">
+        <v>43</v>
+      </c>
+      <c r="T91" s="7">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="92" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F92" s="3"/>
       <c r="G92" s="3">
         <v>90</v>
@@ -3597,8 +5582,14 @@
       <c r="O92" s="6">
         <v>3.5899075981680291</v>
       </c>
-    </row>
-    <row r="93" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S92" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="T92" s="7">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="93" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F93" s="3"/>
       <c r="G93" s="3">
         <v>91</v>
@@ -3623,8 +5614,14 @@
       <c r="O93" s="6">
         <v>3.5894655140584284</v>
       </c>
-    </row>
-    <row r="94" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S93" s="7">
+        <v>44</v>
+      </c>
+      <c r="T93" s="7">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="94" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F94" s="3"/>
       <c r="G94" s="3">
         <v>92</v>
@@ -3649,8 +5646,14 @@
       <c r="O94" s="6">
         <v>3.5840000964750782</v>
       </c>
-    </row>
-    <row r="95" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S94" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="T94" s="7">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="95" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F95" s="3"/>
       <c r="G95" s="3">
         <v>93</v>
@@ -3675,8 +5678,14 @@
       <c r="O95" s="6">
         <v>3.5526667614061349</v>
       </c>
-    </row>
-    <row r="96" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S95" s="7">
+        <v>45</v>
+      </c>
+      <c r="T95" s="7">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="96" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F96" s="3"/>
       <c r="G96" s="3">
         <v>94</v>
@@ -3701,8 +5710,14 @@
       <c r="O96" s="6">
         <v>3.5213334263371916</v>
       </c>
-    </row>
-    <row r="97" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S96" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="T96" s="7">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="97" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F97" s="3"/>
       <c r="G97" s="3">
         <v>95</v>
@@ -3727,8 +5742,14 @@
       <c r="O97" s="6">
         <v>3.4900000912682483</v>
       </c>
-    </row>
-    <row r="98" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S97" s="7">
+        <v>46</v>
+      </c>
+      <c r="T97" s="7">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F98" s="3"/>
       <c r="G98" s="3">
         <v>96</v>
@@ -3753,8 +5774,14 @@
       <c r="O98" s="6">
         <v>3.458666756199305</v>
       </c>
-    </row>
-    <row r="99" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S98" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="T98" s="7">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="99" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F99" s="3"/>
       <c r="G99" s="3">
         <v>97</v>
@@ -3779,8 +5806,14 @@
       <c r="O99" s="6">
         <v>3.4273334211303617</v>
       </c>
-    </row>
-    <row r="100" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S99" s="7">
+        <v>47</v>
+      </c>
+      <c r="T99" s="7">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="100" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F100" s="3"/>
       <c r="G100" s="3">
         <v>98</v>
@@ -3805,8 +5838,14 @@
       <c r="O100" s="6">
         <v>3.3960000860614183</v>
       </c>
-    </row>
-    <row r="101" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S100" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="T100" s="7">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="101" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F101" s="3"/>
       <c r="G101" s="3">
         <v>99</v>
@@ -3831,8 +5870,14 @@
       <c r="O101" s="6">
         <v>3.364666750992475</v>
       </c>
-    </row>
-    <row r="102" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S101" s="7">
+        <v>48</v>
+      </c>
+      <c r="T101" s="7">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="102" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F102" s="3"/>
       <c r="G102" s="3">
         <v>100</v>
@@ -3857,8 +5902,14 @@
       <c r="O102" s="6">
         <v>3.3333334159235317</v>
       </c>
-    </row>
-    <row r="103" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S102" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="T102" s="7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="103" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F103" s="3"/>
       <c r="G103" s="3">
         <v>101</v>
@@ -3879,8 +5930,14 @@
       <c r="O103" s="6">
         <v>3.2686667466953523</v>
       </c>
-    </row>
-    <row r="104" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S103" s="7">
+        <v>49</v>
+      </c>
+      <c r="T103" s="7">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F104" s="3"/>
       <c r="G104" s="3">
         <v>102</v>
@@ -3901,8 +5958,14 @@
       <c r="O104" s="6">
         <v>3.2040000774671737</v>
       </c>
-    </row>
-    <row r="105" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S104" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="T104" s="7">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F105" s="3"/>
       <c r="G105" s="3">
         <v>103</v>
@@ -3923,8 +5986,14 @@
       <c r="O105" s="6">
         <v>3.1393334082389952</v>
       </c>
-    </row>
-    <row r="106" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S105" s="7">
+        <v>50</v>
+      </c>
+      <c r="T105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F106" s="3"/>
       <c r="G106" s="3">
         <v>104</v>
@@ -3945,8 +6014,10 @@
       <c r="O106" s="6">
         <v>3.0746667390108167</v>
       </c>
-    </row>
-    <row r="107" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+    </row>
+    <row r="107" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F107" s="3"/>
       <c r="G107" s="3">
         <v>105</v>
@@ -3967,8 +6038,10 @@
       <c r="O107" s="6">
         <v>3.0100000697826381</v>
       </c>
-    </row>
-    <row r="108" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+    </row>
+    <row r="108" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F108" s="3"/>
       <c r="G108" s="3">
         <v>106</v>
@@ -3989,8 +6062,10 @@
       <c r="O108" s="6">
         <v>2.9453334005544596</v>
       </c>
-    </row>
-    <row r="109" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+    </row>
+    <row r="109" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F109" s="3"/>
       <c r="G109" s="3">
         <v>107</v>
@@ -4011,8 +6086,10 @@
       <c r="O109" s="6">
         <v>2.880666731326281</v>
       </c>
-    </row>
-    <row r="110" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+    </row>
+    <row r="110" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F110" s="3"/>
       <c r="G110" s="3">
         <v>108</v>
@@ -4033,8 +6110,10 @@
       <c r="O110" s="6">
         <v>2.8160000620981016</v>
       </c>
-    </row>
-    <row r="111" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+    </row>
+    <row r="111" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F111" s="3"/>
       <c r="G111" s="3">
         <v>109</v>
@@ -4055,8 +6134,10 @@
       <c r="O111" s="6">
         <v>2.7300000592478284</v>
       </c>
-    </row>
-    <row r="112" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+    </row>
+    <row r="112" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F112" s="3"/>
       <c r="G112" s="3">
         <v>110</v>
@@ -4077,8 +6158,10 @@
       <c r="O112" s="6">
         <v>2.6440000563975534</v>
       </c>
-    </row>
-    <row r="113" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+    </row>
+    <row r="113" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F113" s="3"/>
       <c r="G113" s="3">
         <v>111</v>
@@ -4099,8 +6182,10 @@
       <c r="O113" s="6">
         <v>2.5580000535472802</v>
       </c>
-    </row>
-    <row r="114" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+    </row>
+    <row r="114" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F114" s="3"/>
       <c r="G114" s="3">
         <v>112</v>
@@ -4121,8 +6206,10 @@
       <c r="O114" s="6">
         <v>2.472000050697007</v>
       </c>
-    </row>
-    <row r="115" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+    </row>
+    <row r="115" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F115" s="3"/>
       <c r="G115" s="3">
         <v>113</v>
@@ -4143,8 +6230,10 @@
       <c r="O115" s="6">
         <v>2.386000047846732</v>
       </c>
-    </row>
-    <row r="116" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
+    </row>
+    <row r="116" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F116" s="3"/>
       <c r="G116" s="3">
         <v>114</v>
@@ -4165,8 +6254,10 @@
       <c r="O116" s="6">
         <v>2.3000000449964588</v>
       </c>
-    </row>
-    <row r="117" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+    </row>
+    <row r="117" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F117" s="3"/>
       <c r="G117" s="3">
         <v>115</v>
@@ -4187,8 +6278,10 @@
       <c r="O117" s="6">
         <v>2.2140000421461838</v>
       </c>
-    </row>
-    <row r="118" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+    </row>
+    <row r="118" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F118" s="3"/>
       <c r="G118" s="3">
         <v>116</v>
@@ -4209,8 +6302,10 @@
       <c r="O118" s="6">
         <v>2.1280000392959124</v>
       </c>
-    </row>
-    <row r="119" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+    </row>
+    <row r="119" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F119" s="3"/>
       <c r="G119" s="3">
         <v>117</v>
@@ -4231,8 +6326,10 @@
       <c r="O119" s="6">
         <v>2.0326667033606824</v>
       </c>
-    </row>
-    <row r="120" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+    </row>
+    <row r="120" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F120" s="3"/>
       <c r="G120" s="3">
         <v>118</v>
@@ -4253,8 +6350,10 @@
       <c r="O120" s="6">
         <v>1.9373333674254543</v>
       </c>
-    </row>
-    <row r="121" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+    </row>
+    <row r="121" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F121" s="3"/>
       <c r="G121" s="3">
         <v>119</v>
@@ -4275,8 +6374,10 @@
       <c r="O121" s="6">
         <v>1.8420000314902261</v>
       </c>
-    </row>
-    <row r="122" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+    </row>
+    <row r="122" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F122" s="3"/>
       <c r="G122" s="3">
         <v>120</v>
@@ -4297,8 +6398,10 @@
       <c r="O122" s="6">
         <v>1.7466666955549979</v>
       </c>
-    </row>
-    <row r="123" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+    </row>
+    <row r="123" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F123" s="3"/>
       <c r="G123" s="3">
         <v>121</v>
@@ -4319,8 +6422,10 @@
       <c r="O123" s="6">
         <v>1.6513333596197697</v>
       </c>
-    </row>
-    <row r="124" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+    </row>
+    <row r="124" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F124" s="3"/>
       <c r="G124" s="3">
         <v>122</v>
@@ -4341,8 +6446,10 @@
       <c r="O124" s="6">
         <v>1.5560000236845397</v>
       </c>
-    </row>
-    <row r="125" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S124" s="7"/>
+      <c r="T124" s="7"/>
+    </row>
+    <row r="125" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F125" s="3"/>
       <c r="G125" s="3">
         <v>123</v>
@@ -4363,8 +6470,10 @@
       <c r="O125" s="6">
         <v>1.4606666877493115</v>
       </c>
-    </row>
-    <row r="126" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+    </row>
+    <row r="126" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F126" s="3"/>
       <c r="G126" s="3">
         <v>124</v>
@@ -4385,8 +6494,10 @@
       <c r="O126" s="6">
         <v>1.3653333518140833</v>
       </c>
-    </row>
-    <row r="127" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S126" s="7"/>
+      <c r="T126" s="7"/>
+    </row>
+    <row r="127" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F127" s="3"/>
       <c r="G127" s="3">
         <v>125</v>
@@ -4407,8 +6518,10 @@
       <c r="O127" s="6">
         <v>1.2726666833310407</v>
       </c>
-    </row>
-    <row r="128" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+    </row>
+    <row r="128" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F128" s="3"/>
       <c r="G128" s="3">
         <v>126</v>
@@ -4429,8 +6542,10 @@
       <c r="O128" s="6">
         <v>1.1800000148479981</v>
       </c>
-    </row>
-    <row r="129" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+    </row>
+    <row r="129" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F129" s="3"/>
       <c r="G129" s="3">
         <v>127</v>
@@ -4451,8 +6566,10 @@
       <c r="O129" s="6">
         <v>1.0873333463649537</v>
       </c>
-    </row>
-    <row r="130" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S129" s="7"/>
+      <c r="T129" s="7"/>
+    </row>
+    <row r="130" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F130" s="3"/>
       <c r="G130" s="3">
         <v>128</v>
@@ -4473,8 +6590,10 @@
       <c r="O130" s="6">
         <v>0.9946666778819111</v>
       </c>
-    </row>
-    <row r="131" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S130" s="7"/>
+      <c r="T130" s="7"/>
+    </row>
+    <row r="131" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F131" s="3"/>
       <c r="G131" s="3">
         <v>129</v>
@@ -4495,8 +6614,10 @@
       <c r="O131" s="6">
         <v>0.90200000939886849</v>
       </c>
-    </row>
-    <row r="132" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S131" s="7"/>
+      <c r="T131" s="7"/>
+    </row>
+    <row r="132" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F132" s="3"/>
       <c r="G132" s="3">
         <v>130</v>
@@ -4517,8 +6638,10 @@
       <c r="O132" s="6">
         <v>0.8093333409158241</v>
       </c>
-    </row>
-    <row r="133" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S132" s="7"/>
+      <c r="T132" s="7"/>
+    </row>
+    <row r="133" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F133" s="3"/>
       <c r="G133" s="3">
         <v>131</v>
@@ -4539,8 +6662,10 @@
       <c r="O133" s="6">
         <v>0.71666667243278148</v>
       </c>
-    </row>
-    <row r="134" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S133" s="7"/>
+      <c r="T133" s="7"/>
+    </row>
+    <row r="134" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F134" s="3"/>
       <c r="G134" s="3">
         <v>132</v>
@@ -4561,8 +6686,10 @@
       <c r="O134" s="6">
         <v>0.62400000394973887</v>
       </c>
-    </row>
-    <row r="135" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S134" s="7"/>
+      <c r="T134" s="7"/>
+    </row>
+    <row r="135" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F135" s="3"/>
       <c r="G135" s="3">
         <v>133</v>
@@ -4583,8 +6710,10 @@
       <c r="O135" s="6">
         <v>0.5460000034560224</v>
       </c>
-    </row>
-    <row r="136" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S135" s="7"/>
+      <c r="T135" s="7"/>
+    </row>
+    <row r="136" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F136" s="3"/>
       <c r="G136" s="3">
         <v>134</v>
@@ -4605,8 +6734,10 @@
       <c r="O136" s="6">
         <v>0.46800000296230415</v>
       </c>
-    </row>
-    <row r="137" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+    </row>
+    <row r="137" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F137" s="3"/>
       <c r="G137" s="3">
         <v>135</v>
@@ -4627,8 +6758,10 @@
       <c r="O137" s="6">
         <v>0.39000000246858768</v>
       </c>
-    </row>
-    <row r="138" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+    </row>
+    <row r="138" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F138" s="3"/>
       <c r="G138" s="3">
         <v>136</v>
@@ -4649,8 +6782,10 @@
       <c r="O138" s="6">
         <v>0.31200000197486943</v>
       </c>
-    </row>
-    <row r="139" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S138" s="7"/>
+      <c r="T138" s="7"/>
+    </row>
+    <row r="139" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F139" s="3"/>
       <c r="G139" s="3">
         <v>137</v>
@@ -4671,8 +6806,10 @@
       <c r="O139" s="6">
         <v>0.23400000148115296</v>
       </c>
-    </row>
-    <row r="140" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S139" s="7"/>
+      <c r="T139" s="7"/>
+    </row>
+    <row r="140" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F140" s="3"/>
       <c r="G140" s="3">
         <v>138</v>
@@ -4693,8 +6830,10 @@
       <c r="O140" s="6">
         <v>0.15600000098743472</v>
       </c>
-    </row>
-    <row r="141" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S140" s="7"/>
+      <c r="T140" s="7"/>
+    </row>
+    <row r="141" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F141" s="3"/>
       <c r="G141" s="3">
         <v>139</v>
@@ -4715,8 +6854,10 @@
       <c r="O141" s="6">
         <v>7.8000000493718247E-2</v>
       </c>
-    </row>
-    <row r="142" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S141" s="7"/>
+      <c r="T141" s="7"/>
+    </row>
+    <row r="142" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F142" s="3"/>
       <c r="G142" s="3">
         <v>140</v>
@@ -4737,8 +6878,10 @@
       <c r="O142" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S142" s="7"/>
+      <c r="T142" s="7"/>
+    </row>
+    <row r="143" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F143" s="3"/>
       <c r="G143" s="3">
         <v>141</v>
@@ -4759,8 +6902,10 @@
       <c r="O143" s="6">
         <v>-5.6999999703605475E-2</v>
       </c>
-    </row>
-    <row r="144" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S143" s="7"/>
+      <c r="T143" s="7"/>
+    </row>
+    <row r="144" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F144" s="3"/>
       <c r="G144" s="3">
         <v>142</v>
@@ -4781,8 +6926,10 @@
       <c r="O144" s="6">
         <v>-0.11399999940721361</v>
       </c>
-    </row>
-    <row r="145" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S144" s="7"/>
+      <c r="T144" s="7"/>
+    </row>
+    <row r="145" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F145" s="3"/>
       <c r="G145" s="3">
         <v>143</v>
@@ -4803,8 +6950,10 @@
       <c r="O145" s="6">
         <v>-0.17099999911081998</v>
       </c>
-    </row>
-    <row r="146" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S145" s="7"/>
+      <c r="T145" s="7"/>
+    </row>
+    <row r="146" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F146" s="3"/>
       <c r="G146" s="3">
         <v>144</v>
@@ -4825,8 +6974,10 @@
       <c r="O146" s="6">
         <v>-0.22799999881442634</v>
       </c>
-    </row>
-    <row r="147" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S146" s="7"/>
+      <c r="T146" s="7"/>
+    </row>
+    <row r="147" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F147" s="3"/>
       <c r="G147" s="3">
         <v>145</v>
@@ -4847,8 +6998,10 @@
       <c r="O147" s="6">
         <v>-0.2849999985180327</v>
       </c>
-    </row>
-    <row r="148" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S147" s="7"/>
+      <c r="T147" s="7"/>
+    </row>
+    <row r="148" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F148" s="3"/>
       <c r="G148" s="3">
         <v>146</v>
@@ -4869,8 +7022,10 @@
       <c r="O148" s="6">
         <v>-0.34199999822163907</v>
       </c>
-    </row>
-    <row r="149" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S148" s="7"/>
+      <c r="T148" s="7"/>
+    </row>
+    <row r="149" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F149" s="3"/>
       <c r="G149" s="3">
         <v>147</v>
@@ -4891,8 +7046,10 @@
       <c r="O149" s="6">
         <v>-0.38099999801884366</v>
       </c>
-    </row>
-    <row r="150" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S149" s="7"/>
+      <c r="T149" s="7"/>
+    </row>
+    <row r="150" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F150" s="3"/>
       <c r="G150" s="3">
         <v>148</v>
@@ -4913,8 +7070,10 @@
       <c r="O150" s="6">
         <v>-0.41999999781604824</v>
       </c>
-    </row>
-    <row r="151" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S150" s="7"/>
+      <c r="T150" s="7"/>
+    </row>
+    <row r="151" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F151" s="3"/>
       <c r="G151" s="3">
         <v>149</v>
@@ -4935,8 +7094,10 @@
       <c r="O151" s="6">
         <v>-0.45899999761325283</v>
       </c>
-    </row>
-    <row r="152" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S151" s="7"/>
+      <c r="T151" s="7"/>
+    </row>
+    <row r="152" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F152" s="3"/>
       <c r="G152" s="3">
         <v>150</v>
@@ -4957,8 +7118,10 @@
       <c r="O152" s="6">
         <v>-0.49799999741045742</v>
       </c>
-    </row>
-    <row r="153" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S152" s="7"/>
+      <c r="T152" s="7"/>
+    </row>
+    <row r="153" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F153" s="3"/>
       <c r="G153" s="3">
         <v>151</v>
@@ -4975,8 +7138,10 @@
       <c r="O153" s="6">
         <v>-0.53699999720766201</v>
       </c>
-    </row>
-    <row r="154" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S153" s="7"/>
+      <c r="T153" s="7"/>
+    </row>
+    <row r="154" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F154" s="3"/>
       <c r="G154" s="3">
         <v>152</v>
@@ -4993,8 +7158,10 @@
       <c r="O154" s="6">
         <v>-0.57599999700486615</v>
       </c>
-    </row>
-    <row r="155" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S154" s="7"/>
+      <c r="T154" s="7"/>
+    </row>
+    <row r="155" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F155" s="3"/>
       <c r="G155" s="3">
         <v>153</v>
@@ -5011,8 +7178,10 @@
       <c r="O155" s="6">
         <v>-0.59899999688526862</v>
       </c>
-    </row>
-    <row r="156" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S155" s="7"/>
+      <c r="T155" s="7"/>
+    </row>
+    <row r="156" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F156" s="3"/>
       <c r="G156" s="3">
         <v>154</v>
@@ -5029,8 +7198,10 @@
       <c r="O156" s="6">
         <v>-0.62199999676567153</v>
       </c>
-    </row>
-    <row r="157" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S156" s="7"/>
+      <c r="T156" s="7"/>
+    </row>
+    <row r="157" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F157" s="3"/>
       <c r="G157" s="3">
         <v>155</v>
@@ -5047,8 +7218,10 @@
       <c r="O157" s="6">
         <v>-0.64499999664607399</v>
       </c>
-    </row>
-    <row r="158" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S157" s="7"/>
+      <c r="T157" s="7"/>
+    </row>
+    <row r="158" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F158" s="3"/>
       <c r="G158" s="3">
         <v>156</v>
@@ -5065,8 +7238,10 @@
       <c r="O158" s="6">
         <v>-0.66799999652647646</v>
       </c>
-    </row>
-    <row r="159" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S158" s="7"/>
+      <c r="T158" s="7"/>
+    </row>
+    <row r="159" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F159" s="3"/>
       <c r="G159" s="3">
         <v>157</v>
@@ -5083,8 +7258,10 @@
       <c r="O159" s="6">
         <v>-0.69099999640687937</v>
       </c>
-    </row>
-    <row r="160" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+    </row>
+    <row r="160" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F160" s="3"/>
       <c r="G160" s="3">
         <v>158</v>
@@ -5101,8 +7278,10 @@
       <c r="O160" s="6">
         <v>-0.71399999628728161</v>
       </c>
-    </row>
-    <row r="161" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S160" s="7"/>
+      <c r="T160" s="7"/>
+    </row>
+    <row r="161" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F161" s="3"/>
       <c r="G161" s="3">
         <v>159</v>
@@ -5119,8 +7298,10 @@
       <c r="O161" s="6">
         <v>-0.72299999624048272</v>
       </c>
-    </row>
-    <row r="162" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S161" s="7"/>
+      <c r="T161" s="7"/>
+    </row>
+    <row r="162" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F162" s="3"/>
       <c r="G162" s="3">
         <v>160</v>
@@ -5137,8 +7318,10 @@
       <c r="O162" s="6">
         <v>-0.73199999619368383</v>
       </c>
-    </row>
-    <row r="163" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S162" s="7"/>
+      <c r="T162" s="7"/>
+    </row>
+    <row r="163" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F163" s="3"/>
       <c r="G163" s="3">
         <v>161</v>
@@ -5155,8 +7338,10 @@
       <c r="O163" s="6">
         <v>-0.74099999614688494</v>
       </c>
-    </row>
-    <row r="164" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S163" s="7"/>
+      <c r="T163" s="7"/>
+    </row>
+    <row r="164" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F164" s="3"/>
       <c r="G164" s="3">
         <v>162</v>
@@ -5173,8 +7358,10 @@
       <c r="O164" s="6">
         <v>-0.74999999610008605</v>
       </c>
-    </row>
-    <row r="165" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S164" s="7"/>
+      <c r="T164" s="7"/>
+    </row>
+    <row r="165" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F165" s="3"/>
       <c r="G165" s="3">
         <v>163</v>
@@ -5191,8 +7378,10 @@
       <c r="O165" s="6">
         <v>-0.75899999605328694</v>
       </c>
-    </row>
-    <row r="166" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S165" s="7"/>
+      <c r="T165" s="7"/>
+    </row>
+    <row r="166" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F166" s="3"/>
       <c r="G166" s="3">
         <v>164</v>
@@ -5209,8 +7398,10 @@
       <c r="O166" s="6">
         <v>-0.76799999600648805</v>
       </c>
-    </row>
-    <row r="167" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S166" s="7"/>
+      <c r="T166" s="7"/>
+    </row>
+    <row r="167" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F167" s="3"/>
       <c r="G167" s="3">
         <v>165</v>
@@ -5227,8 +7418,10 @@
       <c r="O167" s="6">
         <v>-0.76499999602208768</v>
       </c>
-    </row>
-    <row r="168" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S167" s="7"/>
+      <c r="T167" s="7"/>
+    </row>
+    <row r="168" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F168" s="3"/>
       <c r="G168" s="3">
         <v>166</v>
@@ -5245,8 +7438,10 @@
       <c r="O168" s="6">
         <v>-0.76199999603768731</v>
       </c>
-    </row>
-    <row r="169" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+    </row>
+    <row r="169" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F169" s="3"/>
       <c r="G169" s="3">
         <v>167</v>
@@ -5263,8 +7458,10 @@
       <c r="O169" s="6">
         <v>-0.75899999605328694</v>
       </c>
-    </row>
-    <row r="170" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S169" s="7"/>
+      <c r="T169" s="7"/>
+    </row>
+    <row r="170" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F170" s="3"/>
       <c r="G170" s="3">
         <v>168</v>
@@ -5281,8 +7478,10 @@
       <c r="O170" s="6">
         <v>-0.75599999606888657</v>
       </c>
-    </row>
-    <row r="171" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S170" s="7"/>
+      <c r="T170" s="7"/>
+    </row>
+    <row r="171" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F171" s="3"/>
       <c r="G171" s="3">
         <v>169</v>
@@ -5299,8 +7498,10 @@
       <c r="O171" s="6">
         <v>-0.7529999960844862</v>
       </c>
-    </row>
-    <row r="172" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S171" s="7"/>
+      <c r="T171" s="7"/>
+    </row>
+    <row r="172" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F172" s="3"/>
       <c r="G172" s="3">
         <v>170</v>
@@ -5317,8 +7518,10 @@
       <c r="O172" s="6">
         <v>-0.74999999610008583</v>
       </c>
-    </row>
-    <row r="173" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S172" s="7"/>
+      <c r="T172" s="7"/>
+    </row>
+    <row r="173" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F173" s="3"/>
       <c r="G173" s="3">
         <v>171</v>
@@ -5335,8 +7538,10 @@
       <c r="O173" s="6">
         <v>-0.73699999618165446</v>
       </c>
-    </row>
-    <row r="174" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S173" s="7"/>
+      <c r="T173" s="7"/>
+    </row>
+    <row r="174" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F174" s="3"/>
       <c r="G174" s="3">
         <v>172</v>
@@ -5353,8 +7558,10 @@
       <c r="O174" s="6">
         <v>-0.72399999626322264</v>
       </c>
-    </row>
-    <row r="175" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S174" s="7"/>
+      <c r="T174" s="7"/>
+    </row>
+    <row r="175" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F175" s="3"/>
       <c r="G175" s="3">
         <v>173</v>
@@ -5371,8 +7578,10 @@
       <c r="O175" s="6">
         <v>-0.71099999634479083</v>
       </c>
-    </row>
-    <row r="176" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S175" s="7"/>
+      <c r="T175" s="7"/>
+    </row>
+    <row r="176" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F176" s="3"/>
       <c r="G176" s="3">
         <v>174</v>
@@ -5389,8 +7598,10 @@
       <c r="O176" s="6">
         <v>-0.69799999642635946</v>
       </c>
-    </row>
-    <row r="177" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S176" s="7"/>
+      <c r="T176" s="7"/>
+    </row>
+    <row r="177" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F177" s="3"/>
       <c r="G177" s="3">
         <v>175</v>
@@ -5407,8 +7618,10 @@
       <c r="O177" s="6">
         <v>-0.68499999650792764</v>
       </c>
-    </row>
-    <row r="178" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S177" s="7"/>
+      <c r="T177" s="7"/>
+    </row>
+    <row r="178" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F178" s="3"/>
       <c r="G178" s="3">
         <v>176</v>
@@ -5425,8 +7638,10 @@
       <c r="O178" s="6">
         <v>-0.67199999658949583</v>
       </c>
-    </row>
-    <row r="179" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S178" s="7"/>
+      <c r="T178" s="7"/>
+    </row>
+    <row r="179" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F179" s="3"/>
       <c r="G179" s="3">
         <v>177</v>
@@ -5443,8 +7658,10 @@
       <c r="O179" s="6">
         <v>-0.65099999669389153</v>
       </c>
-    </row>
-    <row r="180" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S179" s="7"/>
+      <c r="T179" s="7"/>
+    </row>
+    <row r="180" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F180" s="3"/>
       <c r="G180" s="3">
         <v>178</v>
@@ -5461,8 +7678,10 @@
       <c r="O180" s="6">
         <v>-0.62999999679828678</v>
       </c>
-    </row>
-    <row r="181" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S180" s="7"/>
+      <c r="T180" s="7"/>
+    </row>
+    <row r="181" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F181" s="3"/>
       <c r="G181" s="3">
         <v>179</v>
@@ -5479,8 +7698,10 @@
       <c r="O181" s="6">
         <v>-0.60899999690268203</v>
       </c>
-    </row>
-    <row r="182" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S181" s="7"/>
+      <c r="T181" s="7"/>
+    </row>
+    <row r="182" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F182" s="3"/>
       <c r="G182" s="3">
         <v>180</v>
@@ -5497,8 +7718,10 @@
       <c r="O182" s="6">
         <v>-0.58799999700707772</v>
       </c>
-    </row>
-    <row r="183" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S182" s="7"/>
+      <c r="T182" s="7"/>
+    </row>
+    <row r="183" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F183" s="3"/>
       <c r="G183" s="3">
         <v>181</v>
@@ -5515,8 +7738,10 @@
       <c r="O183" s="6">
         <v>-0.56699999711147342</v>
       </c>
-    </row>
-    <row r="184" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S183" s="7"/>
+      <c r="T183" s="7"/>
+    </row>
+    <row r="184" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F184" s="3"/>
       <c r="G184" s="3">
         <v>182</v>
@@ -5533,8 +7758,10 @@
       <c r="O184" s="6">
         <v>-0.54599999721586912</v>
       </c>
-    </row>
-    <row r="185" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S184" s="7"/>
+      <c r="T184" s="7"/>
+    </row>
+    <row r="185" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F185" s="3"/>
       <c r="G185" s="3">
         <v>183</v>
@@ -5551,8 +7778,10 @@
       <c r="O185" s="6">
         <v>-0.51899999734709823</v>
       </c>
-    </row>
-    <row r="186" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S185" s="7"/>
+      <c r="T185" s="7"/>
+    </row>
+    <row r="186" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F186" s="3"/>
       <c r="G186" s="3">
         <v>184</v>
@@ -5569,8 +7798,10 @@
       <c r="O186" s="6">
         <v>-0.49199999747832734</v>
       </c>
-    </row>
-    <row r="187" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S186" s="7"/>
+      <c r="T186" s="7"/>
+    </row>
+    <row r="187" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F187" s="3"/>
       <c r="G187" s="3">
         <v>185</v>
@@ -5587,8 +7818,10 @@
       <c r="O187" s="6">
         <v>-0.46499999760955646</v>
       </c>
-    </row>
-    <row r="188" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S187" s="7"/>
+      <c r="T187" s="7"/>
+    </row>
+    <row r="188" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F188" s="3"/>
       <c r="G188" s="3">
         <v>186</v>
@@ -5605,8 +7838,10 @@
       <c r="O188" s="6">
         <v>-0.43799999774078557</v>
       </c>
-    </row>
-    <row r="189" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S188" s="7"/>
+      <c r="T188" s="7"/>
+    </row>
+    <row r="189" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F189" s="3"/>
       <c r="G189" s="3">
         <v>187</v>
@@ -5623,8 +7858,10 @@
       <c r="O189" s="6">
         <v>-0.41099999787201469</v>
       </c>
-    </row>
-    <row r="190" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S189" s="7"/>
+      <c r="T189" s="7"/>
+    </row>
+    <row r="190" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F190" s="3"/>
       <c r="G190" s="3">
         <v>188</v>
@@ -5641,8 +7878,10 @@
       <c r="O190" s="6">
         <v>-0.38399999800324469</v>
       </c>
-    </row>
-    <row r="191" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S190" s="7"/>
+      <c r="T190" s="7"/>
+    </row>
+    <row r="191" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F191" s="3"/>
       <c r="G191" s="3">
         <v>189</v>
@@ -5659,8 +7898,10 @@
       <c r="O191" s="6">
         <v>-0.3529999981644405</v>
       </c>
-    </row>
-    <row r="192" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S191" s="7"/>
+      <c r="T191" s="7"/>
+    </row>
+    <row r="192" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F192" s="3"/>
       <c r="G192" s="3">
         <v>190</v>
@@ -5677,8 +7918,10 @@
       <c r="O192" s="6">
         <v>-0.32199999832563719</v>
       </c>
-    </row>
-    <row r="193" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S192" s="7"/>
+      <c r="T192" s="7"/>
+    </row>
+    <row r="193" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F193" s="3"/>
       <c r="G193" s="3">
         <v>191</v>
@@ -5695,8 +7938,10 @@
       <c r="O193" s="6">
         <v>-0.29099999848683389</v>
       </c>
-    </row>
-    <row r="194" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S193" s="7"/>
+      <c r="T193" s="7"/>
+    </row>
+    <row r="194" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F194" s="3"/>
       <c r="G194" s="3">
         <v>192</v>
@@ -5713,8 +7958,10 @@
       <c r="O194" s="6">
         <v>-0.25999999864803058</v>
       </c>
-    </row>
-    <row r="195" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S194" s="7"/>
+      <c r="T194" s="7"/>
+    </row>
+    <row r="195" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F195" s="3"/>
       <c r="G195" s="3">
         <v>193</v>
@@ -5731,8 +7978,10 @@
       <c r="O195" s="6">
         <v>-0.22899999880922639</v>
       </c>
-    </row>
-    <row r="196" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S195" s="7"/>
+      <c r="T195" s="7"/>
+    </row>
+    <row r="196" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F196" s="3"/>
       <c r="G196" s="3">
         <v>194</v>
@@ -5749,8 +7998,10 @@
       <c r="O196" s="6">
         <v>-0.19799999897042309</v>
       </c>
-    </row>
-    <row r="197" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S196" s="7"/>
+      <c r="T196" s="7"/>
+    </row>
+    <row r="197" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F197" s="3"/>
       <c r="G197" s="3">
         <v>195</v>
@@ -5767,8 +8018,10 @@
       <c r="O197" s="6">
         <v>-0.16499999914201879</v>
       </c>
-    </row>
-    <row r="198" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S197" s="7"/>
+      <c r="T197" s="7"/>
+    </row>
+    <row r="198" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F198" s="3"/>
       <c r="G198" s="3">
         <v>196</v>
@@ -5785,8 +8038,10 @@
       <c r="O198" s="6">
         <v>-0.13199999931361539</v>
       </c>
-    </row>
-    <row r="199" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S198" s="7"/>
+      <c r="T198" s="7"/>
+    </row>
+    <row r="199" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F199" s="3"/>
       <c r="G199" s="3">
         <v>197</v>
@@ -5803,8 +8058,10 @@
       <c r="O199" s="6">
         <v>-9.8999999485211099E-2</v>
       </c>
-    </row>
-    <row r="200" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S199" s="7"/>
+      <c r="T199" s="7"/>
+    </row>
+    <row r="200" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F200" s="3"/>
       <c r="G200" s="3">
         <v>198</v>
@@ -5821,8 +8078,10 @@
       <c r="O200" s="6">
         <v>-6.5999999656807695E-2</v>
       </c>
-    </row>
-    <row r="201" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S200" s="7"/>
+      <c r="T200" s="7"/>
+    </row>
+    <row r="201" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F201" s="3"/>
       <c r="G201" s="3">
         <v>199</v>
@@ -5839,8 +8098,10 @@
       <c r="O201" s="6">
         <v>-3.2999999828403404E-2</v>
       </c>
-    </row>
-    <row r="202" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S201" s="7"/>
+      <c r="T201" s="7"/>
+    </row>
+    <row r="202" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F202" s="3"/>
       <c r="G202" s="3">
         <v>200</v>
@@ -5857,1535 +8118,2526 @@
       <c r="O202" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S202" s="7"/>
+      <c r="T202" s="7"/>
+    </row>
+    <row r="203" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F203" s="3"/>
       <c r="G203" s="5"/>
-    </row>
-    <row r="204" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S203" s="7"/>
+      <c r="T203" s="7"/>
+    </row>
+    <row r="204" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F204" s="3"/>
       <c r="G204" s="5"/>
-    </row>
-    <row r="205" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S204" s="7"/>
+      <c r="T204" s="7"/>
+    </row>
+    <row r="205" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F205" s="3"/>
       <c r="G205" s="5"/>
-    </row>
-    <row r="206" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S205" s="7"/>
+      <c r="T205" s="7"/>
+    </row>
+    <row r="206" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F206" s="3"/>
       <c r="G206" s="5"/>
-    </row>
-    <row r="207" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S206" s="7"/>
+      <c r="T206" s="7"/>
+    </row>
+    <row r="207" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F207" s="3"/>
       <c r="G207" s="5"/>
-    </row>
-    <row r="208" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="S207" s="7"/>
+      <c r="T207" s="7"/>
+    </row>
+    <row r="208" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F208" s="3"/>
       <c r="G208" s="5"/>
-    </row>
-    <row r="209" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S208" s="7"/>
+      <c r="T208" s="7"/>
+    </row>
+    <row r="209" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F209" s="3"/>
       <c r="G209" s="5"/>
-    </row>
-    <row r="210" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S209" s="7"/>
+      <c r="T209" s="7"/>
+    </row>
+    <row r="210" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F210" s="3"/>
       <c r="G210" s="5"/>
-    </row>
-    <row r="211" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S210" s="7"/>
+      <c r="T210" s="7"/>
+    </row>
+    <row r="211" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F211" s="3"/>
       <c r="G211" s="5"/>
-    </row>
-    <row r="212" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S211" s="7"/>
+      <c r="T211" s="7"/>
+    </row>
+    <row r="212" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F212" s="3"/>
       <c r="G212" s="5"/>
-    </row>
-    <row r="213" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S212" s="7"/>
+      <c r="T212" s="7"/>
+    </row>
+    <row r="213" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F213" s="3"/>
       <c r="G213" s="5"/>
-    </row>
-    <row r="214" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S213" s="7"/>
+      <c r="T213" s="7"/>
+    </row>
+    <row r="214" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F214" s="3"/>
       <c r="G214" s="5"/>
-    </row>
-    <row r="215" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S214" s="7"/>
+      <c r="T214" s="7"/>
+    </row>
+    <row r="215" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F215" s="3"/>
       <c r="G215" s="5"/>
-    </row>
-    <row r="216" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S215" s="7"/>
+      <c r="T215" s="7"/>
+    </row>
+    <row r="216" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F216" s="3"/>
       <c r="G216" s="5"/>
-    </row>
-    <row r="217" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S216" s="7"/>
+      <c r="T216" s="7"/>
+    </row>
+    <row r="217" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F217" s="3"/>
       <c r="G217" s="5"/>
-    </row>
-    <row r="218" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S217" s="7"/>
+      <c r="T217" s="7"/>
+    </row>
+    <row r="218" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F218" s="3"/>
       <c r="G218" s="5"/>
-    </row>
-    <row r="219" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S218" s="7"/>
+      <c r="T218" s="7"/>
+    </row>
+    <row r="219" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F219" s="3"/>
       <c r="G219" s="5"/>
-    </row>
-    <row r="220" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S219" s="7"/>
+      <c r="T219" s="7"/>
+    </row>
+    <row r="220" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F220" s="3"/>
       <c r="G220" s="5"/>
-    </row>
-    <row r="221" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S220" s="7"/>
+      <c r="T220" s="7"/>
+    </row>
+    <row r="221" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F221" s="3"/>
       <c r="G221" s="5"/>
-    </row>
-    <row r="222" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S221" s="7"/>
+      <c r="T221" s="7"/>
+    </row>
+    <row r="222" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F222" s="3"/>
       <c r="G222" s="5"/>
-    </row>
-    <row r="223" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S222" s="7"/>
+      <c r="T222" s="7"/>
+    </row>
+    <row r="223" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F223" s="3"/>
       <c r="G223" s="5"/>
-    </row>
-    <row r="224" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S223" s="7"/>
+      <c r="T223" s="7"/>
+    </row>
+    <row r="224" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F224" s="3"/>
       <c r="G224" s="5"/>
-    </row>
-    <row r="225" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S224" s="7"/>
+      <c r="T224" s="7"/>
+    </row>
+    <row r="225" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F225" s="3"/>
       <c r="G225" s="5"/>
-    </row>
-    <row r="226" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S225" s="7"/>
+      <c r="T225" s="7"/>
+    </row>
+    <row r="226" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F226" s="3"/>
       <c r="G226" s="5"/>
-    </row>
-    <row r="227" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S226" s="7"/>
+      <c r="T226" s="7"/>
+    </row>
+    <row r="227" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F227" s="3"/>
       <c r="G227" s="5"/>
-    </row>
-    <row r="228" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S227" s="7"/>
+      <c r="T227" s="7"/>
+    </row>
+    <row r="228" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F228" s="3"/>
       <c r="G228" s="5"/>
-    </row>
-    <row r="229" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S228" s="7"/>
+      <c r="T228" s="7"/>
+    </row>
+    <row r="229" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F229" s="3"/>
       <c r="G229" s="5"/>
-    </row>
-    <row r="230" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S229" s="7"/>
+      <c r="T229" s="7"/>
+    </row>
+    <row r="230" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F230" s="3"/>
       <c r="G230" s="5"/>
-    </row>
-    <row r="231" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S230" s="7"/>
+      <c r="T230" s="7"/>
+    </row>
+    <row r="231" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F231" s="3"/>
       <c r="G231" s="5"/>
-    </row>
-    <row r="232" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S231" s="7"/>
+      <c r="T231" s="7"/>
+    </row>
+    <row r="232" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F232" s="3"/>
       <c r="G232" s="5"/>
-    </row>
-    <row r="233" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S232" s="7"/>
+      <c r="T232" s="7"/>
+    </row>
+    <row r="233" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F233" s="3"/>
       <c r="G233" s="5"/>
-    </row>
-    <row r="234" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S233" s="7"/>
+      <c r="T233" s="7"/>
+    </row>
+    <row r="234" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F234" s="3"/>
       <c r="G234" s="5"/>
-    </row>
-    <row r="235" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S234" s="7"/>
+      <c r="T234" s="7"/>
+    </row>
+    <row r="235" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F235" s="3"/>
       <c r="G235" s="5"/>
-    </row>
-    <row r="236" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S235" s="7"/>
+      <c r="T235" s="7"/>
+    </row>
+    <row r="236" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F236" s="3"/>
       <c r="G236" s="5"/>
-    </row>
-    <row r="237" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S236" s="7"/>
+      <c r="T236" s="7"/>
+    </row>
+    <row r="237" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F237" s="3"/>
       <c r="G237" s="5"/>
-    </row>
-    <row r="238" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S237" s="7"/>
+      <c r="T237" s="7"/>
+    </row>
+    <row r="238" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F238" s="3"/>
       <c r="G238" s="5"/>
-    </row>
-    <row r="239" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S238" s="7"/>
+      <c r="T238" s="7"/>
+    </row>
+    <row r="239" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F239" s="3"/>
       <c r="G239" s="5"/>
-    </row>
-    <row r="240" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S239" s="7"/>
+      <c r="T239" s="7"/>
+    </row>
+    <row r="240" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F240" s="3"/>
       <c r="G240" s="5"/>
-    </row>
-    <row r="241" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S240" s="7"/>
+      <c r="T240" s="7"/>
+    </row>
+    <row r="241" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F241" s="3"/>
       <c r="G241" s="5"/>
-    </row>
-    <row r="242" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S241" s="7"/>
+      <c r="T241" s="7"/>
+    </row>
+    <row r="242" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F242" s="3"/>
       <c r="G242" s="5"/>
-    </row>
-    <row r="243" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S242" s="7"/>
+      <c r="T242" s="7"/>
+    </row>
+    <row r="243" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F243" s="3"/>
       <c r="G243" s="5"/>
-    </row>
-    <row r="244" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S243" s="7"/>
+      <c r="T243" s="7"/>
+    </row>
+    <row r="244" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F244" s="3"/>
       <c r="G244" s="5"/>
-    </row>
-    <row r="245" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S244" s="7"/>
+      <c r="T244" s="7"/>
+    </row>
+    <row r="245" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F245" s="3"/>
       <c r="G245" s="5"/>
-    </row>
-    <row r="246" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S245" s="7"/>
+      <c r="T245" s="7"/>
+    </row>
+    <row r="246" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F246" s="3"/>
       <c r="G246" s="5"/>
-    </row>
-    <row r="247" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S246" s="7"/>
+      <c r="T246" s="7"/>
+    </row>
+    <row r="247" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F247" s="3"/>
       <c r="G247" s="5"/>
-    </row>
-    <row r="248" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S247" s="7"/>
+      <c r="T247" s="7"/>
+    </row>
+    <row r="248" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F248" s="3"/>
       <c r="G248" s="5"/>
-    </row>
-    <row r="249" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S248" s="7"/>
+      <c r="T248" s="7"/>
+    </row>
+    <row r="249" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F249" s="3"/>
       <c r="G249" s="5"/>
-    </row>
-    <row r="250" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S249" s="7"/>
+      <c r="T249" s="7"/>
+    </row>
+    <row r="250" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F250" s="3"/>
       <c r="G250" s="5"/>
-    </row>
-    <row r="251" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S250" s="7"/>
+      <c r="T250" s="7"/>
+    </row>
+    <row r="251" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F251" s="3"/>
       <c r="G251" s="5"/>
-    </row>
-    <row r="252" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S251" s="7"/>
+      <c r="T251" s="7"/>
+    </row>
+    <row r="252" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F252" s="3"/>
       <c r="G252" s="5"/>
-    </row>
-    <row r="253" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S252" s="7"/>
+      <c r="T252" s="7"/>
+    </row>
+    <row r="253" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F253" s="3"/>
       <c r="G253" s="5"/>
-    </row>
-    <row r="254" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S253" s="7"/>
+      <c r="T253" s="7"/>
+    </row>
+    <row r="254" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F254" s="3"/>
       <c r="G254" s="5"/>
-    </row>
-    <row r="255" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S254" s="7"/>
+      <c r="T254" s="7"/>
+    </row>
+    <row r="255" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F255" s="3"/>
       <c r="G255" s="5"/>
-    </row>
-    <row r="256" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S255" s="7"/>
+      <c r="T255" s="7"/>
+    </row>
+    <row r="256" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F256" s="3"/>
       <c r="G256" s="5"/>
-    </row>
-    <row r="257" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S256" s="7"/>
+      <c r="T256" s="7"/>
+    </row>
+    <row r="257" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F257" s="3"/>
       <c r="G257" s="5"/>
-    </row>
-    <row r="258" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S257" s="7"/>
+      <c r="T257" s="7"/>
+    </row>
+    <row r="258" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F258" s="3"/>
       <c r="G258" s="5"/>
-    </row>
-    <row r="259" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S258" s="7"/>
+      <c r="T258" s="7"/>
+    </row>
+    <row r="259" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F259" s="3"/>
       <c r="G259" s="5"/>
-    </row>
-    <row r="260" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S259" s="7"/>
+      <c r="T259" s="7"/>
+    </row>
+    <row r="260" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F260" s="3"/>
       <c r="G260" s="5"/>
-    </row>
-    <row r="261" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S260" s="7"/>
+      <c r="T260" s="7"/>
+    </row>
+    <row r="261" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F261" s="3"/>
       <c r="G261" s="5"/>
-    </row>
-    <row r="262" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S261" s="7"/>
+      <c r="T261" s="7"/>
+    </row>
+    <row r="262" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F262" s="3"/>
       <c r="G262" s="5"/>
-    </row>
-    <row r="263" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S262" s="7"/>
+      <c r="T262" s="7"/>
+    </row>
+    <row r="263" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F263" s="3"/>
       <c r="G263" s="5"/>
-    </row>
-    <row r="264" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S263" s="7"/>
+      <c r="T263" s="7"/>
+    </row>
+    <row r="264" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F264" s="3"/>
       <c r="G264" s="5"/>
-    </row>
-    <row r="265" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S264" s="7"/>
+      <c r="T264" s="7"/>
+    </row>
+    <row r="265" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F265" s="3"/>
       <c r="G265" s="5"/>
-    </row>
-    <row r="266" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S265" s="7"/>
+      <c r="T265" s="7"/>
+    </row>
+    <row r="266" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F266" s="3"/>
       <c r="G266" s="5"/>
-    </row>
-    <row r="267" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S266" s="7"/>
+      <c r="T266" s="7"/>
+    </row>
+    <row r="267" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F267" s="3"/>
       <c r="G267" s="5"/>
-    </row>
-    <row r="268" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S267" s="7"/>
+      <c r="T267" s="7"/>
+    </row>
+    <row r="268" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F268" s="3"/>
       <c r="G268" s="5"/>
-    </row>
-    <row r="269" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S268" s="7"/>
+      <c r="T268" s="7"/>
+    </row>
+    <row r="269" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F269" s="3"/>
       <c r="G269" s="5"/>
-    </row>
-    <row r="270" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S269" s="7"/>
+      <c r="T269" s="7"/>
+    </row>
+    <row r="270" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F270" s="3"/>
       <c r="G270" s="5"/>
-    </row>
-    <row r="271" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S270" s="7"/>
+      <c r="T270" s="7"/>
+    </row>
+    <row r="271" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F271" s="3"/>
       <c r="G271" s="5"/>
-    </row>
-    <row r="272" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S271" s="7"/>
+      <c r="T271" s="7"/>
+    </row>
+    <row r="272" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F272" s="3"/>
       <c r="G272" s="5"/>
-    </row>
-    <row r="273" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S272" s="7"/>
+      <c r="T272" s="7"/>
+    </row>
+    <row r="273" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F273" s="3"/>
       <c r="G273" s="5"/>
-    </row>
-    <row r="274" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S273" s="7"/>
+      <c r="T273" s="7"/>
+    </row>
+    <row r="274" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F274" s="3"/>
       <c r="G274" s="5"/>
-    </row>
-    <row r="275" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S274" s="7"/>
+      <c r="T274" s="7"/>
+    </row>
+    <row r="275" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F275" s="3"/>
       <c r="G275" s="5"/>
-    </row>
-    <row r="276" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S275" s="7"/>
+      <c r="T275" s="7"/>
+    </row>
+    <row r="276" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F276" s="3"/>
       <c r="G276" s="5"/>
-    </row>
-    <row r="277" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S276" s="7"/>
+      <c r="T276" s="7"/>
+    </row>
+    <row r="277" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F277" s="3"/>
       <c r="G277" s="5"/>
-    </row>
-    <row r="278" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S277" s="7"/>
+      <c r="T277" s="7"/>
+    </row>
+    <row r="278" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F278" s="3"/>
       <c r="G278" s="5"/>
-    </row>
-    <row r="279" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S278" s="7"/>
+      <c r="T278" s="7"/>
+    </row>
+    <row r="279" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F279" s="3"/>
       <c r="G279" s="5"/>
-    </row>
-    <row r="280" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S279" s="7"/>
+      <c r="T279" s="7"/>
+    </row>
+    <row r="280" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F280" s="3"/>
       <c r="G280" s="5"/>
-    </row>
-    <row r="281" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S280" s="7"/>
+      <c r="T280" s="7"/>
+    </row>
+    <row r="281" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F281" s="3"/>
       <c r="G281" s="5"/>
-    </row>
-    <row r="282" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S281" s="7"/>
+      <c r="T281" s="7"/>
+    </row>
+    <row r="282" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F282" s="3"/>
       <c r="G282" s="5"/>
-    </row>
-    <row r="283" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S282" s="7"/>
+      <c r="T282" s="7"/>
+    </row>
+    <row r="283" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F283" s="3"/>
       <c r="G283" s="5"/>
-    </row>
-    <row r="284" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S283" s="7"/>
+      <c r="T283" s="7"/>
+    </row>
+    <row r="284" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F284" s="3"/>
       <c r="G284" s="5"/>
-    </row>
-    <row r="285" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S284" s="7"/>
+      <c r="T284" s="7"/>
+    </row>
+    <row r="285" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F285" s="3"/>
       <c r="G285" s="5"/>
-    </row>
-    <row r="286" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S285" s="7"/>
+      <c r="T285" s="7"/>
+    </row>
+    <row r="286" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F286" s="3"/>
       <c r="G286" s="5"/>
-    </row>
-    <row r="287" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S286" s="7"/>
+      <c r="T286" s="7"/>
+    </row>
+    <row r="287" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F287" s="3"/>
       <c r="G287" s="5"/>
-    </row>
-    <row r="288" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S287" s="7"/>
+      <c r="T287" s="7"/>
+    </row>
+    <row r="288" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F288" s="3"/>
       <c r="G288" s="5"/>
-    </row>
-    <row r="289" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S288" s="7"/>
+      <c r="T288" s="7"/>
+    </row>
+    <row r="289" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F289" s="3"/>
       <c r="G289" s="5"/>
-    </row>
-    <row r="290" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S289" s="7"/>
+      <c r="T289" s="7"/>
+    </row>
+    <row r="290" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F290" s="3"/>
       <c r="G290" s="5"/>
-    </row>
-    <row r="291" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S290" s="7"/>
+      <c r="T290" s="7"/>
+    </row>
+    <row r="291" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F291" s="3"/>
       <c r="G291" s="5"/>
-    </row>
-    <row r="292" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S291" s="7"/>
+      <c r="T291" s="7"/>
+    </row>
+    <row r="292" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F292" s="3"/>
       <c r="G292" s="5"/>
-    </row>
-    <row r="293" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S292" s="7"/>
+      <c r="T292" s="7"/>
+    </row>
+    <row r="293" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F293" s="3"/>
       <c r="G293" s="5"/>
-    </row>
-    <row r="294" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S293" s="7"/>
+      <c r="T293" s="7"/>
+    </row>
+    <row r="294" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F294" s="3"/>
       <c r="G294" s="5"/>
-    </row>
-    <row r="295" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S294" s="7"/>
+      <c r="T294" s="7"/>
+    </row>
+    <row r="295" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F295" s="3"/>
       <c r="G295" s="5"/>
-    </row>
-    <row r="296" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S295" s="7"/>
+      <c r="T295" s="7"/>
+    </row>
+    <row r="296" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F296" s="3"/>
       <c r="G296" s="5"/>
-    </row>
-    <row r="297" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S296" s="7"/>
+      <c r="T296" s="7"/>
+    </row>
+    <row r="297" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F297" s="3"/>
       <c r="G297" s="5"/>
-    </row>
-    <row r="298" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S297" s="7"/>
+      <c r="T297" s="7"/>
+    </row>
+    <row r="298" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F298" s="3"/>
       <c r="G298" s="5"/>
-    </row>
-    <row r="299" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S298" s="7"/>
+      <c r="T298" s="7"/>
+    </row>
+    <row r="299" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F299" s="3"/>
       <c r="G299" s="5"/>
-    </row>
-    <row r="300" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S299" s="7"/>
+      <c r="T299" s="7"/>
+    </row>
+    <row r="300" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F300" s="3"/>
       <c r="G300" s="5"/>
-    </row>
-    <row r="301" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S300" s="7"/>
+      <c r="T300" s="7"/>
+    </row>
+    <row r="301" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F301" s="3"/>
       <c r="G301" s="5"/>
-    </row>
-    <row r="302" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S301" s="7"/>
+      <c r="T301" s="7"/>
+    </row>
+    <row r="302" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F302" s="3"/>
       <c r="G302" s="5"/>
-    </row>
-    <row r="303" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S302" s="7"/>
+      <c r="T302" s="7"/>
+    </row>
+    <row r="303" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F303" s="3"/>
       <c r="G303" s="5"/>
-    </row>
-    <row r="304" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S303" s="7"/>
+      <c r="T303" s="7"/>
+    </row>
+    <row r="304" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F304" s="3"/>
       <c r="G304" s="5"/>
-    </row>
-    <row r="305" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S304" s="7"/>
+      <c r="T304" s="7"/>
+    </row>
+    <row r="305" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F305" s="3"/>
       <c r="G305" s="5"/>
-    </row>
-    <row r="306" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S305" s="7"/>
+      <c r="T305" s="7"/>
+    </row>
+    <row r="306" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F306" s="3"/>
       <c r="G306" s="5"/>
-    </row>
-    <row r="307" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S306" s="7"/>
+      <c r="T306" s="7"/>
+    </row>
+    <row r="307" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F307" s="3"/>
       <c r="G307" s="5"/>
-    </row>
-    <row r="308" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S307" s="7"/>
+      <c r="T307" s="7"/>
+    </row>
+    <row r="308" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F308" s="3"/>
       <c r="G308" s="5"/>
-    </row>
-    <row r="309" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S308" s="7"/>
+      <c r="T308" s="7"/>
+    </row>
+    <row r="309" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F309" s="3"/>
       <c r="G309" s="5"/>
-    </row>
-    <row r="310" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S309" s="7"/>
+      <c r="T309" s="7"/>
+    </row>
+    <row r="310" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F310" s="3"/>
       <c r="G310" s="5"/>
-    </row>
-    <row r="311" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S310" s="7"/>
+      <c r="T310" s="7"/>
+    </row>
+    <row r="311" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F311" s="3"/>
       <c r="G311" s="5"/>
-    </row>
-    <row r="312" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S311" s="7"/>
+      <c r="T311" s="7"/>
+    </row>
+    <row r="312" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F312" s="3"/>
       <c r="G312" s="5"/>
-    </row>
-    <row r="313" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S312" s="7"/>
+      <c r="T312" s="7"/>
+    </row>
+    <row r="313" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F313" s="3"/>
       <c r="G313" s="5"/>
-    </row>
-    <row r="314" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S313" s="7"/>
+      <c r="T313" s="7"/>
+    </row>
+    <row r="314" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F314" s="3"/>
       <c r="G314" s="5"/>
-    </row>
-    <row r="315" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S314" s="7"/>
+      <c r="T314" s="7"/>
+    </row>
+    <row r="315" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F315" s="3"/>
       <c r="G315" s="5"/>
-    </row>
-    <row r="316" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S315" s="7"/>
+      <c r="T315" s="7"/>
+    </row>
+    <row r="316" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F316" s="3"/>
       <c r="G316" s="5"/>
-    </row>
-    <row r="317" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S316" s="7"/>
+      <c r="T316" s="7"/>
+    </row>
+    <row r="317" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F317" s="3"/>
       <c r="G317" s="5"/>
-    </row>
-    <row r="318" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S317" s="7"/>
+      <c r="T317" s="7"/>
+    </row>
+    <row r="318" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F318" s="3"/>
       <c r="G318" s="5"/>
-    </row>
-    <row r="319" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S318" s="7"/>
+      <c r="T318" s="7"/>
+    </row>
+    <row r="319" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F319" s="3"/>
       <c r="G319" s="5"/>
-    </row>
-    <row r="320" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S319" s="7"/>
+      <c r="T319" s="7"/>
+    </row>
+    <row r="320" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F320" s="3"/>
       <c r="G320" s="5"/>
-    </row>
-    <row r="321" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S320" s="7"/>
+      <c r="T320" s="7"/>
+    </row>
+    <row r="321" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F321" s="3"/>
       <c r="G321" s="5"/>
-    </row>
-    <row r="322" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S321" s="7"/>
+      <c r="T321" s="7"/>
+    </row>
+    <row r="322" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F322" s="3"/>
       <c r="G322" s="5"/>
-    </row>
-    <row r="323" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S322" s="7"/>
+      <c r="T322" s="7"/>
+    </row>
+    <row r="323" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F323" s="3"/>
       <c r="G323" s="5"/>
-    </row>
-    <row r="324" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S323" s="7"/>
+      <c r="T323" s="7"/>
+    </row>
+    <row r="324" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F324" s="3"/>
       <c r="G324" s="5"/>
-    </row>
-    <row r="325" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S324" s="7"/>
+      <c r="T324" s="7"/>
+    </row>
+    <row r="325" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F325" s="3"/>
       <c r="G325" s="5"/>
-    </row>
-    <row r="326" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S325" s="7"/>
+      <c r="T325" s="7"/>
+    </row>
+    <row r="326" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F326" s="3"/>
       <c r="G326" s="5"/>
-    </row>
-    <row r="327" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S326" s="7"/>
+      <c r="T326" s="7"/>
+    </row>
+    <row r="327" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F327" s="3"/>
       <c r="G327" s="5"/>
-    </row>
-    <row r="328" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S327" s="7"/>
+      <c r="T327" s="7"/>
+    </row>
+    <row r="328" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F328" s="3"/>
       <c r="G328" s="5"/>
-    </row>
-    <row r="329" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S328" s="7"/>
+      <c r="T328" s="7"/>
+    </row>
+    <row r="329" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F329" s="3"/>
       <c r="G329" s="5"/>
-    </row>
-    <row r="330" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S329" s="7"/>
+      <c r="T329" s="7"/>
+    </row>
+    <row r="330" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F330" s="3"/>
       <c r="G330" s="5"/>
-    </row>
-    <row r="331" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S330" s="7"/>
+      <c r="T330" s="7"/>
+    </row>
+    <row r="331" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F331" s="3"/>
       <c r="G331" s="5"/>
-    </row>
-    <row r="332" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S331" s="7"/>
+      <c r="T331" s="7"/>
+    </row>
+    <row r="332" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F332" s="3"/>
       <c r="G332" s="5"/>
-    </row>
-    <row r="333" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S332" s="7"/>
+      <c r="T332" s="7"/>
+    </row>
+    <row r="333" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F333" s="3"/>
       <c r="G333" s="5"/>
-    </row>
-    <row r="334" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S333" s="7"/>
+      <c r="T333" s="7"/>
+    </row>
+    <row r="334" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F334" s="3"/>
       <c r="G334" s="5"/>
-    </row>
-    <row r="335" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S334" s="7"/>
+      <c r="T334" s="7"/>
+    </row>
+    <row r="335" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F335" s="3"/>
       <c r="G335" s="5"/>
-    </row>
-    <row r="336" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S335" s="7"/>
+      <c r="T335" s="7"/>
+    </row>
+    <row r="336" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F336" s="3"/>
       <c r="G336" s="5"/>
-    </row>
-    <row r="337" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S336" s="7"/>
+      <c r="T336" s="7"/>
+    </row>
+    <row r="337" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F337" s="3"/>
       <c r="G337" s="5"/>
-    </row>
-    <row r="338" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S337" s="7"/>
+      <c r="T337" s="7"/>
+    </row>
+    <row r="338" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F338" s="3"/>
       <c r="G338" s="5"/>
-    </row>
-    <row r="339" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S338" s="7"/>
+      <c r="T338" s="7"/>
+    </row>
+    <row r="339" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F339" s="3"/>
       <c r="G339" s="5"/>
-    </row>
-    <row r="340" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S339" s="7"/>
+      <c r="T339" s="7"/>
+    </row>
+    <row r="340" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F340" s="3"/>
       <c r="G340" s="5"/>
-    </row>
-    <row r="341" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S340" s="7"/>
+      <c r="T340" s="7"/>
+    </row>
+    <row r="341" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F341" s="3"/>
       <c r="G341" s="5"/>
-    </row>
-    <row r="342" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S341" s="7"/>
+      <c r="T341" s="7"/>
+    </row>
+    <row r="342" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F342" s="3"/>
       <c r="G342" s="5"/>
-    </row>
-    <row r="343" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S342" s="7"/>
+      <c r="T342" s="7"/>
+    </row>
+    <row r="343" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F343" s="3"/>
       <c r="G343" s="5"/>
-    </row>
-    <row r="344" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S343" s="7"/>
+      <c r="T343" s="7"/>
+    </row>
+    <row r="344" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F344" s="3"/>
       <c r="G344" s="5"/>
-    </row>
-    <row r="345" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S344" s="7"/>
+      <c r="T344" s="7"/>
+    </row>
+    <row r="345" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F345" s="3"/>
       <c r="G345" s="5"/>
-    </row>
-    <row r="346" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S345" s="7"/>
+      <c r="T345" s="7"/>
+    </row>
+    <row r="346" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F346" s="3"/>
       <c r="G346" s="5"/>
-    </row>
-    <row r="347" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S346" s="7"/>
+      <c r="T346" s="7"/>
+    </row>
+    <row r="347" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F347" s="3"/>
       <c r="G347" s="5"/>
-    </row>
-    <row r="348" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S347" s="7"/>
+      <c r="T347" s="7"/>
+    </row>
+    <row r="348" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F348" s="3"/>
       <c r="G348" s="5"/>
-    </row>
-    <row r="349" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S348" s="7"/>
+      <c r="T348" s="7"/>
+    </row>
+    <row r="349" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F349" s="3"/>
       <c r="G349" s="5"/>
-    </row>
-    <row r="350" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S349" s="7"/>
+      <c r="T349" s="7"/>
+    </row>
+    <row r="350" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F350" s="3"/>
       <c r="G350" s="5"/>
-    </row>
-    <row r="351" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S350" s="7"/>
+      <c r="T350" s="7"/>
+    </row>
+    <row r="351" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F351" s="3"/>
       <c r="G351" s="5"/>
-    </row>
-    <row r="352" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S351" s="7"/>
+      <c r="T351" s="7"/>
+    </row>
+    <row r="352" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F352" s="3"/>
       <c r="G352" s="5"/>
-    </row>
-    <row r="353" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S352" s="7"/>
+      <c r="T352" s="7"/>
+    </row>
+    <row r="353" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F353" s="3"/>
       <c r="G353" s="5"/>
-    </row>
-    <row r="354" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S353" s="7"/>
+      <c r="T353" s="7"/>
+    </row>
+    <row r="354" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F354" s="3"/>
       <c r="G354" s="5"/>
-    </row>
-    <row r="355" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S354" s="7"/>
+      <c r="T354" s="7"/>
+    </row>
+    <row r="355" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F355" s="3"/>
       <c r="G355" s="5"/>
-    </row>
-    <row r="356" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S355" s="7"/>
+      <c r="T355" s="7"/>
+    </row>
+    <row r="356" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F356" s="3"/>
       <c r="G356" s="5"/>
-    </row>
-    <row r="357" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S356" s="7"/>
+      <c r="T356" s="7"/>
+    </row>
+    <row r="357" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F357" s="3"/>
       <c r="G357" s="5"/>
-    </row>
-    <row r="358" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S357" s="7"/>
+      <c r="T357" s="7"/>
+    </row>
+    <row r="358" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F358" s="3"/>
       <c r="G358" s="5"/>
-    </row>
-    <row r="359" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S358" s="7"/>
+      <c r="T358" s="7"/>
+    </row>
+    <row r="359" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F359" s="3"/>
       <c r="G359" s="5"/>
-    </row>
-    <row r="360" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S359" s="7"/>
+      <c r="T359" s="7"/>
+    </row>
+    <row r="360" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F360" s="3"/>
       <c r="G360" s="5"/>
-    </row>
-    <row r="361" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S360" s="7"/>
+      <c r="T360" s="7"/>
+    </row>
+    <row r="361" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F361" s="3"/>
       <c r="G361" s="5"/>
-    </row>
-    <row r="362" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S361" s="7"/>
+      <c r="T361" s="7"/>
+    </row>
+    <row r="362" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F362" s="3"/>
       <c r="G362" s="5"/>
-    </row>
-    <row r="363" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S362" s="7"/>
+      <c r="T362" s="7"/>
+    </row>
+    <row r="363" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F363" s="3"/>
       <c r="G363" s="5"/>
-    </row>
-    <row r="364" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S363" s="7"/>
+      <c r="T363" s="7"/>
+    </row>
+    <row r="364" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F364" s="3"/>
       <c r="G364" s="5"/>
-    </row>
-    <row r="365" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S364" s="7"/>
+      <c r="T364" s="7"/>
+    </row>
+    <row r="365" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F365" s="3"/>
       <c r="G365" s="5"/>
-    </row>
-    <row r="366" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S365" s="7"/>
+      <c r="T365" s="7"/>
+    </row>
+    <row r="366" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F366" s="3"/>
       <c r="G366" s="5"/>
-    </row>
-    <row r="367" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S366" s="7"/>
+      <c r="T366" s="7"/>
+    </row>
+    <row r="367" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F367" s="3"/>
       <c r="G367" s="5"/>
-    </row>
-    <row r="368" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S367" s="7"/>
+      <c r="T367" s="7"/>
+    </row>
+    <row r="368" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F368" s="3"/>
       <c r="G368" s="5"/>
-    </row>
-    <row r="369" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S368" s="7"/>
+      <c r="T368" s="7"/>
+    </row>
+    <row r="369" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F369" s="3"/>
       <c r="G369" s="5"/>
-    </row>
-    <row r="370" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S369" s="7"/>
+      <c r="T369" s="7"/>
+    </row>
+    <row r="370" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F370" s="3"/>
       <c r="G370" s="5"/>
-    </row>
-    <row r="371" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S370" s="7"/>
+      <c r="T370" s="7"/>
+    </row>
+    <row r="371" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F371" s="3"/>
       <c r="G371" s="5"/>
-    </row>
-    <row r="372" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S371" s="7"/>
+      <c r="T371" s="7"/>
+    </row>
+    <row r="372" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F372" s="3"/>
       <c r="G372" s="5"/>
-    </row>
-    <row r="373" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S372" s="7"/>
+      <c r="T372" s="7"/>
+    </row>
+    <row r="373" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F373" s="3"/>
       <c r="G373" s="5"/>
-    </row>
-    <row r="374" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S373" s="7"/>
+      <c r="T373" s="7"/>
+    </row>
+    <row r="374" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F374" s="3"/>
       <c r="G374" s="5"/>
-    </row>
-    <row r="375" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S374" s="7"/>
+      <c r="T374" s="7"/>
+    </row>
+    <row r="375" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F375" s="3"/>
       <c r="G375" s="5"/>
-    </row>
-    <row r="376" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S375" s="7"/>
+      <c r="T375" s="7"/>
+    </row>
+    <row r="376" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F376" s="3"/>
       <c r="G376" s="5"/>
-    </row>
-    <row r="377" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S376" s="7"/>
+      <c r="T376" s="7"/>
+    </row>
+    <row r="377" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F377" s="3"/>
       <c r="G377" s="5"/>
-    </row>
-    <row r="378" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S377" s="7"/>
+      <c r="T377" s="7"/>
+    </row>
+    <row r="378" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F378" s="3"/>
       <c r="G378" s="5"/>
-    </row>
-    <row r="379" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S378" s="7"/>
+      <c r="T378" s="7"/>
+    </row>
+    <row r="379" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F379" s="3"/>
       <c r="G379" s="5"/>
-    </row>
-    <row r="380" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S379" s="7"/>
+      <c r="T379" s="7"/>
+    </row>
+    <row r="380" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F380" s="3"/>
       <c r="G380" s="5"/>
-    </row>
-    <row r="381" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S380" s="7"/>
+      <c r="T380" s="7"/>
+    </row>
+    <row r="381" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F381" s="3"/>
       <c r="G381" s="5"/>
-    </row>
-    <row r="382" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S381" s="7"/>
+      <c r="T381" s="7"/>
+    </row>
+    <row r="382" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F382" s="3"/>
       <c r="G382" s="5"/>
-    </row>
-    <row r="383" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S382" s="7"/>
+      <c r="T382" s="7"/>
+    </row>
+    <row r="383" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F383" s="3"/>
       <c r="G383" s="5"/>
-    </row>
-    <row r="384" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S383" s="7"/>
+      <c r="T383" s="7"/>
+    </row>
+    <row r="384" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F384" s="3"/>
       <c r="G384" s="5"/>
-    </row>
-    <row r="385" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S384" s="7"/>
+      <c r="T384" s="7"/>
+    </row>
+    <row r="385" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F385" s="3"/>
       <c r="G385" s="5"/>
-    </row>
-    <row r="386" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S385" s="7"/>
+      <c r="T385" s="7"/>
+    </row>
+    <row r="386" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F386" s="3"/>
       <c r="G386" s="5"/>
-    </row>
-    <row r="387" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S386" s="7"/>
+      <c r="T386" s="7"/>
+    </row>
+    <row r="387" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F387" s="3"/>
       <c r="G387" s="5"/>
-    </row>
-    <row r="388" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S387" s="7"/>
+      <c r="T387" s="7"/>
+    </row>
+    <row r="388" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F388" s="3"/>
       <c r="G388" s="5"/>
-    </row>
-    <row r="389" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S388" s="7"/>
+      <c r="T388" s="7"/>
+    </row>
+    <row r="389" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F389" s="3"/>
       <c r="G389" s="5"/>
-    </row>
-    <row r="390" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S389" s="7"/>
+      <c r="T389" s="7"/>
+    </row>
+    <row r="390" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F390" s="3"/>
       <c r="G390" s="5"/>
-    </row>
-    <row r="391" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S390" s="7"/>
+      <c r="T390" s="7"/>
+    </row>
+    <row r="391" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F391" s="3"/>
       <c r="G391" s="5"/>
-    </row>
-    <row r="392" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S391" s="7"/>
+      <c r="T391" s="7"/>
+    </row>
+    <row r="392" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F392" s="3"/>
       <c r="G392" s="5"/>
-    </row>
-    <row r="393" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S392" s="7"/>
+      <c r="T392" s="7"/>
+    </row>
+    <row r="393" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F393" s="3"/>
       <c r="G393" s="5"/>
-    </row>
-    <row r="394" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S393" s="7"/>
+      <c r="T393" s="7"/>
+    </row>
+    <row r="394" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F394" s="3"/>
       <c r="G394" s="5"/>
-    </row>
-    <row r="395" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S394" s="7"/>
+      <c r="T394" s="7"/>
+    </row>
+    <row r="395" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F395" s="3"/>
       <c r="G395" s="5"/>
-    </row>
-    <row r="396" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S395" s="7"/>
+      <c r="T395" s="7"/>
+    </row>
+    <row r="396" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F396" s="3"/>
       <c r="G396" s="5"/>
-    </row>
-    <row r="397" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S396" s="7"/>
+      <c r="T396" s="7"/>
+    </row>
+    <row r="397" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F397" s="3"/>
       <c r="G397" s="5"/>
-    </row>
-    <row r="398" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S397" s="7"/>
+      <c r="T397" s="7"/>
+    </row>
+    <row r="398" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F398" s="3"/>
       <c r="G398" s="5"/>
-    </row>
-    <row r="399" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S398" s="7"/>
+      <c r="T398" s="7"/>
+    </row>
+    <row r="399" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F399" s="3"/>
       <c r="G399" s="5"/>
-    </row>
-    <row r="400" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S399" s="7"/>
+      <c r="T399" s="7"/>
+    </row>
+    <row r="400" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F400" s="3"/>
       <c r="G400" s="5"/>
-    </row>
-    <row r="401" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S400" s="7"/>
+      <c r="T400" s="7"/>
+    </row>
+    <row r="401" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F401" s="3"/>
       <c r="G401" s="5"/>
-    </row>
-    <row r="402" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S401" s="7"/>
+      <c r="T401" s="7"/>
+    </row>
+    <row r="402" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F402" s="3"/>
       <c r="G402" s="5"/>
-    </row>
-    <row r="403" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S402" s="7"/>
+      <c r="T402" s="7"/>
+    </row>
+    <row r="403" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F403" s="3"/>
       <c r="G403" s="5"/>
-    </row>
-    <row r="404" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S403" s="7"/>
+      <c r="T403" s="7"/>
+    </row>
+    <row r="404" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F404" s="3"/>
       <c r="G404" s="5"/>
-    </row>
-    <row r="405" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S404" s="7"/>
+      <c r="T404" s="7"/>
+    </row>
+    <row r="405" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F405" s="3"/>
       <c r="G405" s="5"/>
-    </row>
-    <row r="406" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S405" s="7"/>
+      <c r="T405" s="7"/>
+    </row>
+    <row r="406" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F406" s="3"/>
       <c r="G406" s="5"/>
-    </row>
-    <row r="407" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S406" s="7"/>
+      <c r="T406" s="7"/>
+    </row>
+    <row r="407" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F407" s="3"/>
       <c r="G407" s="5"/>
-    </row>
-    <row r="408" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S407" s="7"/>
+      <c r="T407" s="7"/>
+    </row>
+    <row r="408" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F408" s="3"/>
       <c r="G408" s="5"/>
-    </row>
-    <row r="409" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S408" s="7"/>
+      <c r="T408" s="7"/>
+    </row>
+    <row r="409" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F409" s="3"/>
       <c r="G409" s="5"/>
-    </row>
-    <row r="410" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S409" s="7"/>
+      <c r="T409" s="7"/>
+    </row>
+    <row r="410" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F410" s="3"/>
       <c r="G410" s="5"/>
-    </row>
-    <row r="411" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S410" s="7"/>
+      <c r="T410" s="7"/>
+    </row>
+    <row r="411" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F411" s="3"/>
       <c r="G411" s="5"/>
-    </row>
-    <row r="412" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S411" s="7"/>
+      <c r="T411" s="7"/>
+    </row>
+    <row r="412" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F412" s="3"/>
       <c r="G412" s="5"/>
-    </row>
-    <row r="413" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S412" s="7"/>
+      <c r="T412" s="7"/>
+    </row>
+    <row r="413" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F413" s="3"/>
       <c r="G413" s="5"/>
-    </row>
-    <row r="414" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S413" s="7"/>
+      <c r="T413" s="7"/>
+    </row>
+    <row r="414" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F414" s="3"/>
       <c r="G414" s="5"/>
-    </row>
-    <row r="415" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S414" s="7"/>
+      <c r="T414" s="7"/>
+    </row>
+    <row r="415" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F415" s="3"/>
       <c r="G415" s="5"/>
-    </row>
-    <row r="416" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S415" s="7"/>
+      <c r="T415" s="7"/>
+    </row>
+    <row r="416" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F416" s="3"/>
       <c r="G416" s="5"/>
-    </row>
-    <row r="417" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S416" s="7"/>
+      <c r="T416" s="7"/>
+    </row>
+    <row r="417" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F417" s="3"/>
       <c r="G417" s="5"/>
-    </row>
-    <row r="418" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S417" s="7"/>
+      <c r="T417" s="7"/>
+    </row>
+    <row r="418" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F418" s="3"/>
       <c r="G418" s="5"/>
-    </row>
-    <row r="419" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S418" s="7"/>
+      <c r="T418" s="7"/>
+    </row>
+    <row r="419" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F419" s="3"/>
       <c r="G419" s="5"/>
-    </row>
-    <row r="420" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S419" s="7"/>
+      <c r="T419" s="7"/>
+    </row>
+    <row r="420" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F420" s="3"/>
       <c r="G420" s="5"/>
-    </row>
-    <row r="421" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S420" s="7"/>
+      <c r="T420" s="7"/>
+    </row>
+    <row r="421" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F421" s="3"/>
       <c r="G421" s="5"/>
-    </row>
-    <row r="422" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S421" s="7"/>
+      <c r="T421" s="7"/>
+    </row>
+    <row r="422" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F422" s="3"/>
       <c r="G422" s="5"/>
-    </row>
-    <row r="423" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S422" s="7"/>
+      <c r="T422" s="7"/>
+    </row>
+    <row r="423" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F423" s="3"/>
       <c r="G423" s="5"/>
-    </row>
-    <row r="424" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S423" s="7"/>
+      <c r="T423" s="7"/>
+    </row>
+    <row r="424" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F424" s="3"/>
       <c r="G424" s="5"/>
-    </row>
-    <row r="425" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S424" s="7"/>
+      <c r="T424" s="7"/>
+    </row>
+    <row r="425" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F425" s="3"/>
       <c r="G425" s="5"/>
-    </row>
-    <row r="426" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S425" s="7"/>
+      <c r="T425" s="7"/>
+    </row>
+    <row r="426" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F426" s="3"/>
       <c r="G426" s="5"/>
-    </row>
-    <row r="427" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S426" s="7"/>
+      <c r="T426" s="7"/>
+    </row>
+    <row r="427" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F427" s="3"/>
       <c r="G427" s="5"/>
-    </row>
-    <row r="428" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S427" s="7"/>
+      <c r="T427" s="7"/>
+    </row>
+    <row r="428" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F428" s="3"/>
       <c r="G428" s="5"/>
-    </row>
-    <row r="429" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S428" s="7"/>
+      <c r="T428" s="7"/>
+    </row>
+    <row r="429" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F429" s="3"/>
       <c r="G429" s="5"/>
-    </row>
-    <row r="430" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S429" s="7"/>
+      <c r="T429" s="7"/>
+    </row>
+    <row r="430" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F430" s="3"/>
       <c r="G430" s="5"/>
-    </row>
-    <row r="431" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S430" s="7"/>
+      <c r="T430" s="7"/>
+    </row>
+    <row r="431" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F431" s="3"/>
       <c r="G431" s="5"/>
-    </row>
-    <row r="432" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S431" s="7"/>
+      <c r="T431" s="7"/>
+    </row>
+    <row r="432" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F432" s="3"/>
       <c r="G432" s="5"/>
-    </row>
-    <row r="433" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S432" s="7"/>
+      <c r="T432" s="7"/>
+    </row>
+    <row r="433" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F433" s="3"/>
       <c r="G433" s="5"/>
-    </row>
-    <row r="434" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S433" s="7"/>
+      <c r="T433" s="7"/>
+    </row>
+    <row r="434" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F434" s="3"/>
       <c r="G434" s="5"/>
-    </row>
-    <row r="435" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S434" s="7"/>
+      <c r="T434" s="7"/>
+    </row>
+    <row r="435" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F435" s="3"/>
       <c r="G435" s="5"/>
-    </row>
-    <row r="436" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S435" s="7"/>
+      <c r="T435" s="7"/>
+    </row>
+    <row r="436" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F436" s="3"/>
       <c r="G436" s="5"/>
-    </row>
-    <row r="437" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S436" s="7"/>
+      <c r="T436" s="7"/>
+    </row>
+    <row r="437" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F437" s="3"/>
       <c r="G437" s="5"/>
-    </row>
-    <row r="438" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S437" s="7"/>
+      <c r="T437" s="7"/>
+    </row>
+    <row r="438" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F438" s="3"/>
       <c r="G438" s="5"/>
-    </row>
-    <row r="439" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S438" s="7"/>
+      <c r="T438" s="7"/>
+    </row>
+    <row r="439" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F439" s="3"/>
       <c r="G439" s="5"/>
-    </row>
-    <row r="440" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S439" s="7"/>
+      <c r="T439" s="7"/>
+    </row>
+    <row r="440" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F440" s="3"/>
       <c r="G440" s="5"/>
-    </row>
-    <row r="441" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S440" s="7"/>
+      <c r="T440" s="7"/>
+    </row>
+    <row r="441" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F441" s="3"/>
       <c r="G441" s="5"/>
-    </row>
-    <row r="442" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S441" s="7"/>
+      <c r="T441" s="7"/>
+    </row>
+    <row r="442" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F442" s="3"/>
       <c r="G442" s="5"/>
-    </row>
-    <row r="443" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S442" s="7"/>
+      <c r="T442" s="7"/>
+    </row>
+    <row r="443" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F443" s="3"/>
       <c r="G443" s="5"/>
-    </row>
-    <row r="444" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S443" s="7"/>
+      <c r="T443" s="7"/>
+    </row>
+    <row r="444" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F444" s="3"/>
       <c r="G444" s="5"/>
-    </row>
-    <row r="445" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S444" s="7"/>
+      <c r="T444" s="7"/>
+    </row>
+    <row r="445" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F445" s="3"/>
       <c r="G445" s="5"/>
-    </row>
-    <row r="446" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S445" s="7"/>
+      <c r="T445" s="7"/>
+    </row>
+    <row r="446" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F446" s="3"/>
       <c r="G446" s="5"/>
-    </row>
-    <row r="447" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S446" s="7"/>
+      <c r="T446" s="7"/>
+    </row>
+    <row r="447" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F447" s="3"/>
       <c r="G447" s="5"/>
-    </row>
-    <row r="448" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S447" s="7"/>
+      <c r="T447" s="7"/>
+    </row>
+    <row r="448" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F448" s="3"/>
       <c r="G448" s="5"/>
-    </row>
-    <row r="449" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S448" s="7"/>
+      <c r="T448" s="7"/>
+    </row>
+    <row r="449" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F449" s="3"/>
       <c r="G449" s="5"/>
-    </row>
-    <row r="450" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S449" s="7"/>
+      <c r="T449" s="7"/>
+    </row>
+    <row r="450" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F450" s="3"/>
       <c r="G450" s="5"/>
-    </row>
-    <row r="451" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S450" s="7"/>
+      <c r="T450" s="7"/>
+    </row>
+    <row r="451" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F451" s="3"/>
       <c r="G451" s="5"/>
-    </row>
-    <row r="452" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S451" s="7"/>
+      <c r="T451" s="7"/>
+    </row>
+    <row r="452" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F452" s="3"/>
       <c r="G452" s="5"/>
-    </row>
-    <row r="453" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S452" s="7"/>
+      <c r="T452" s="7"/>
+    </row>
+    <row r="453" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F453" s="3"/>
       <c r="G453" s="5"/>
-    </row>
-    <row r="454" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S453" s="7"/>
+      <c r="T453" s="7"/>
+    </row>
+    <row r="454" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F454" s="3"/>
       <c r="G454" s="5"/>
-    </row>
-    <row r="455" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S454" s="7"/>
+      <c r="T454" s="7"/>
+    </row>
+    <row r="455" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F455" s="3"/>
       <c r="G455" s="5"/>
-    </row>
-    <row r="456" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S455" s="7"/>
+      <c r="T455" s="7"/>
+    </row>
+    <row r="456" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F456" s="3"/>
       <c r="G456" s="5"/>
-    </row>
-    <row r="457" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S456" s="7"/>
+      <c r="T456" s="7"/>
+    </row>
+    <row r="457" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F457" s="3"/>
       <c r="G457" s="5"/>
-    </row>
-    <row r="458" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S457" s="7"/>
+      <c r="T457" s="7"/>
+    </row>
+    <row r="458" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F458" s="3"/>
       <c r="G458" s="5"/>
-    </row>
-    <row r="459" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S458" s="7"/>
+      <c r="T458" s="7"/>
+    </row>
+    <row r="459" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F459" s="3"/>
       <c r="G459" s="5"/>
-    </row>
-    <row r="460" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S459" s="7"/>
+      <c r="T459" s="7"/>
+    </row>
+    <row r="460" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F460" s="3"/>
       <c r="G460" s="5"/>
-    </row>
-    <row r="461" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S460" s="7"/>
+      <c r="T460" s="7"/>
+    </row>
+    <row r="461" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F461" s="3"/>
       <c r="G461" s="5"/>
-    </row>
-    <row r="462" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S461" s="7"/>
+      <c r="T461" s="7"/>
+    </row>
+    <row r="462" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F462" s="3"/>
       <c r="G462" s="5"/>
-    </row>
-    <row r="463" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S462" s="7"/>
+      <c r="T462" s="7"/>
+    </row>
+    <row r="463" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F463" s="3"/>
       <c r="G463" s="5"/>
-    </row>
-    <row r="464" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S463" s="7"/>
+      <c r="T463" s="7"/>
+    </row>
+    <row r="464" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F464" s="3"/>
       <c r="G464" s="5"/>
-    </row>
-    <row r="465" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S464" s="7"/>
+      <c r="T464" s="7"/>
+    </row>
+    <row r="465" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F465" s="3"/>
       <c r="G465" s="5"/>
-    </row>
-    <row r="466" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S465" s="7"/>
+      <c r="T465" s="7"/>
+    </row>
+    <row r="466" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F466" s="3"/>
       <c r="G466" s="5"/>
-    </row>
-    <row r="467" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S466" s="7"/>
+      <c r="T466" s="7"/>
+    </row>
+    <row r="467" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F467" s="3"/>
       <c r="G467" s="5"/>
-    </row>
-    <row r="468" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S467" s="7"/>
+      <c r="T467" s="7"/>
+    </row>
+    <row r="468" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F468" s="3"/>
       <c r="G468" s="5"/>
-    </row>
-    <row r="469" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S468" s="7"/>
+      <c r="T468" s="7"/>
+    </row>
+    <row r="469" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F469" s="3"/>
       <c r="G469" s="5"/>
-    </row>
-    <row r="470" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S469" s="7"/>
+      <c r="T469" s="7"/>
+    </row>
+    <row r="470" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F470" s="3"/>
       <c r="G470" s="5"/>
-    </row>
-    <row r="471" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S470" s="7"/>
+      <c r="T470" s="7"/>
+    </row>
+    <row r="471" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F471" s="3"/>
       <c r="G471" s="5"/>
-    </row>
-    <row r="472" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S471" s="7"/>
+      <c r="T471" s="7"/>
+    </row>
+    <row r="472" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F472" s="3"/>
       <c r="G472" s="5"/>
-    </row>
-    <row r="473" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S472" s="7"/>
+      <c r="T472" s="7"/>
+    </row>
+    <row r="473" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F473" s="3"/>
       <c r="G473" s="5"/>
-    </row>
-    <row r="474" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S473" s="7"/>
+      <c r="T473" s="7"/>
+    </row>
+    <row r="474" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F474" s="3"/>
       <c r="G474" s="5"/>
-    </row>
-    <row r="475" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S474" s="7"/>
+      <c r="T474" s="7"/>
+    </row>
+    <row r="475" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F475" s="3"/>
       <c r="G475" s="5"/>
-    </row>
-    <row r="476" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S475" s="7"/>
+      <c r="T475" s="7"/>
+    </row>
+    <row r="476" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F476" s="3"/>
       <c r="G476" s="5"/>
-    </row>
-    <row r="477" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S476" s="7"/>
+      <c r="T476" s="7"/>
+    </row>
+    <row r="477" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F477" s="3"/>
       <c r="G477" s="5"/>
-    </row>
-    <row r="478" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S477" s="7"/>
+      <c r="T477" s="7"/>
+    </row>
+    <row r="478" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F478" s="3"/>
       <c r="G478" s="5"/>
-    </row>
-    <row r="479" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S478" s="7"/>
+      <c r="T478" s="7"/>
+    </row>
+    <row r="479" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F479" s="3"/>
       <c r="G479" s="5"/>
-    </row>
-    <row r="480" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S479" s="7"/>
+      <c r="T479" s="7"/>
+    </row>
+    <row r="480" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F480" s="3"/>
       <c r="G480" s="5"/>
-    </row>
-    <row r="481" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S480" s="7"/>
+      <c r="T480" s="7"/>
+    </row>
+    <row r="481" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F481" s="3"/>
       <c r="G481" s="5"/>
-    </row>
-    <row r="482" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S481" s="7"/>
+      <c r="T481" s="7"/>
+    </row>
+    <row r="482" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F482" s="3"/>
       <c r="G482" s="5"/>
-    </row>
-    <row r="483" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S482" s="7"/>
+      <c r="T482" s="7"/>
+    </row>
+    <row r="483" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F483" s="3"/>
       <c r="G483" s="5"/>
-    </row>
-    <row r="484" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S483" s="7"/>
+      <c r="T483" s="7"/>
+    </row>
+    <row r="484" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F484" s="3"/>
       <c r="G484" s="5"/>
-    </row>
-    <row r="485" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S484" s="7"/>
+      <c r="T484" s="7"/>
+    </row>
+    <row r="485" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F485" s="3"/>
       <c r="G485" s="5"/>
-    </row>
-    <row r="486" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S485" s="7"/>
+      <c r="T485" s="7"/>
+    </row>
+    <row r="486" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F486" s="3"/>
       <c r="G486" s="5"/>
-    </row>
-    <row r="487" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S486" s="7"/>
+      <c r="T486" s="7"/>
+    </row>
+    <row r="487" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F487" s="3"/>
       <c r="G487" s="5"/>
-    </row>
-    <row r="488" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S487" s="7"/>
+      <c r="T487" s="7"/>
+    </row>
+    <row r="488" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F488" s="3"/>
       <c r="G488" s="5"/>
-    </row>
-    <row r="489" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S488" s="7"/>
+      <c r="T488" s="7"/>
+    </row>
+    <row r="489" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F489" s="3"/>
       <c r="G489" s="5"/>
-    </row>
-    <row r="490" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S489" s="7"/>
+      <c r="T489" s="7"/>
+    </row>
+    <row r="490" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F490" s="3"/>
       <c r="G490" s="5"/>
-    </row>
-    <row r="491" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S490" s="7"/>
+      <c r="T490" s="7"/>
+    </row>
+    <row r="491" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F491" s="3"/>
       <c r="G491" s="5"/>
-    </row>
-    <row r="492" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S491" s="7"/>
+      <c r="T491" s="7"/>
+    </row>
+    <row r="492" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F492" s="3"/>
       <c r="G492" s="5"/>
-    </row>
-    <row r="493" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S492" s="7"/>
+      <c r="T492" s="7"/>
+    </row>
+    <row r="493" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F493" s="3"/>
       <c r="G493" s="5"/>
-    </row>
-    <row r="494" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S493" s="7"/>
+      <c r="T493" s="7"/>
+    </row>
+    <row r="494" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F494" s="3"/>
       <c r="G494" s="5"/>
-    </row>
-    <row r="495" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S494" s="7"/>
+      <c r="T494" s="7"/>
+    </row>
+    <row r="495" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F495" s="3"/>
       <c r="G495" s="5"/>
-    </row>
-    <row r="496" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S495" s="7"/>
+      <c r="T495" s="7"/>
+    </row>
+    <row r="496" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F496" s="3"/>
       <c r="G496" s="5"/>
-    </row>
-    <row r="497" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S496" s="7"/>
+      <c r="T496" s="7"/>
+    </row>
+    <row r="497" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F497" s="3"/>
       <c r="G497" s="5"/>
-    </row>
-    <row r="498" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S497" s="7"/>
+      <c r="T497" s="7"/>
+    </row>
+    <row r="498" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F498" s="3"/>
       <c r="G498" s="5"/>
-    </row>
-    <row r="499" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S498" s="7"/>
+      <c r="T498" s="7"/>
+    </row>
+    <row r="499" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F499" s="3"/>
       <c r="G499" s="5"/>
-    </row>
-    <row r="500" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S499" s="7"/>
+      <c r="T499" s="7"/>
+    </row>
+    <row r="500" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F500" s="3"/>
       <c r="G500" s="5"/>
-    </row>
-    <row r="501" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S500" s="7"/>
+      <c r="T500" s="7"/>
+    </row>
+    <row r="501" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F501" s="3"/>
       <c r="G501" s="5"/>
-    </row>
-    <row r="502" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S501" s="7"/>
+      <c r="T501" s="7"/>
+    </row>
+    <row r="502" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F502" s="3"/>
       <c r="G502" s="5"/>
-    </row>
-    <row r="503" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S502" s="7"/>
+      <c r="T502" s="7"/>
+    </row>
+    <row r="503" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F503" s="3"/>
       <c r="G503" s="5"/>
-    </row>
-    <row r="504" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S503" s="7"/>
+      <c r="T503" s="7"/>
+    </row>
+    <row r="504" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F504" s="3"/>
       <c r="G504" s="5"/>
-    </row>
-    <row r="505" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S504" s="7"/>
+      <c r="T504" s="7"/>
+    </row>
+    <row r="505" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F505" s="3"/>
       <c r="G505" s="5"/>
-    </row>
-    <row r="506" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S505" s="7"/>
+      <c r="T505" s="7"/>
+    </row>
+    <row r="506" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F506" s="3"/>
       <c r="G506" s="5"/>
-    </row>
-    <row r="507" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S506" s="7"/>
+      <c r="T506" s="7"/>
+    </row>
+    <row r="507" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F507" s="3"/>
       <c r="G507" s="5"/>
-    </row>
-    <row r="508" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S507" s="7"/>
+      <c r="T507" s="7"/>
+    </row>
+    <row r="508" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F508" s="3"/>
       <c r="G508" s="5"/>
-    </row>
-    <row r="509" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S508" s="7"/>
+      <c r="T508" s="7"/>
+    </row>
+    <row r="509" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F509" s="3"/>
       <c r="G509" s="5"/>
-    </row>
-    <row r="510" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S509" s="7"/>
+      <c r="T509" s="7"/>
+    </row>
+    <row r="510" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F510" s="3"/>
       <c r="G510" s="5"/>
-    </row>
-    <row r="511" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S510" s="7"/>
+      <c r="T510" s="7"/>
+    </row>
+    <row r="511" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F511" s="3"/>
       <c r="G511" s="5"/>
-    </row>
-    <row r="512" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S511" s="7"/>
+      <c r="T511" s="7"/>
+    </row>
+    <row r="512" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F512" s="3"/>
       <c r="G512" s="5"/>
-    </row>
-    <row r="513" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S512" s="7"/>
+      <c r="T512" s="7"/>
+    </row>
+    <row r="513" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F513" s="3"/>
       <c r="G513" s="5"/>
-    </row>
-    <row r="514" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S513" s="7"/>
+      <c r="T513" s="7"/>
+    </row>
+    <row r="514" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F514" s="3"/>
       <c r="G514" s="5"/>
-    </row>
-    <row r="515" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S514" s="7"/>
+      <c r="T514" s="7"/>
+    </row>
+    <row r="515" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F515" s="3"/>
       <c r="G515" s="5"/>
-    </row>
-    <row r="516" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S515" s="7"/>
+      <c r="T515" s="7"/>
+    </row>
+    <row r="516" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F516" s="3"/>
       <c r="G516" s="5"/>
-    </row>
-    <row r="517" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S516" s="7"/>
+      <c r="T516" s="7"/>
+    </row>
+    <row r="517" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F517" s="3"/>
       <c r="G517" s="5"/>
-    </row>
-    <row r="518" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S517" s="7"/>
+      <c r="T517" s="7"/>
+    </row>
+    <row r="518" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F518" s="3"/>
       <c r="G518" s="5"/>
-    </row>
-    <row r="519" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S518" s="7"/>
+      <c r="T518" s="7"/>
+    </row>
+    <row r="519" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F519" s="3"/>
       <c r="G519" s="5"/>
-    </row>
-    <row r="520" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S519" s="7"/>
+      <c r="T519" s="7"/>
+    </row>
+    <row r="520" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F520" s="3"/>
       <c r="G520" s="5"/>
-    </row>
-    <row r="521" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S520" s="7"/>
+      <c r="T520" s="7"/>
+    </row>
+    <row r="521" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F521" s="3"/>
       <c r="G521" s="5"/>
-    </row>
-    <row r="522" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S521" s="7"/>
+      <c r="T521" s="7"/>
+    </row>
+    <row r="522" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F522" s="3"/>
       <c r="G522" s="5"/>
-    </row>
-    <row r="523" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S522" s="7"/>
+      <c r="T522" s="7"/>
+    </row>
+    <row r="523" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F523" s="3"/>
       <c r="G523" s="5"/>
-    </row>
-    <row r="524" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S523" s="7"/>
+      <c r="T523" s="7"/>
+    </row>
+    <row r="524" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F524" s="3"/>
       <c r="G524" s="5"/>
-    </row>
-    <row r="525" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S524" s="7"/>
+      <c r="T524" s="7"/>
+    </row>
+    <row r="525" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F525" s="3"/>
       <c r="G525" s="5"/>
-    </row>
-    <row r="526" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S525" s="7"/>
+      <c r="T525" s="7"/>
+    </row>
+    <row r="526" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F526" s="3"/>
       <c r="G526" s="5"/>
-    </row>
-    <row r="527" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S526" s="7"/>
+      <c r="T526" s="7"/>
+    </row>
+    <row r="527" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F527" s="3"/>
       <c r="G527" s="5"/>
-    </row>
-    <row r="528" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S527" s="7"/>
+      <c r="T527" s="7"/>
+    </row>
+    <row r="528" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F528" s="3"/>
       <c r="G528" s="5"/>
-    </row>
-    <row r="529" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S528" s="7"/>
+      <c r="T528" s="7"/>
+    </row>
+    <row r="529" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F529" s="3"/>
       <c r="G529" s="5"/>
-    </row>
-    <row r="530" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S529" s="7"/>
+      <c r="T529" s="7"/>
+    </row>
+    <row r="530" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F530" s="3"/>
       <c r="G530" s="5"/>
-    </row>
-    <row r="531" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S530" s="7"/>
+      <c r="T530" s="7"/>
+    </row>
+    <row r="531" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F531" s="3"/>
       <c r="G531" s="5"/>
-    </row>
-    <row r="532" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S531" s="7"/>
+      <c r="T531" s="7"/>
+    </row>
+    <row r="532" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F532" s="3"/>
       <c r="G532" s="5"/>
-    </row>
-    <row r="533" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S532" s="7"/>
+      <c r="T532" s="7"/>
+    </row>
+    <row r="533" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F533" s="3"/>
       <c r="G533" s="5"/>
-    </row>
-    <row r="534" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S533" s="7"/>
+      <c r="T533" s="7"/>
+    </row>
+    <row r="534" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F534" s="3"/>
       <c r="G534" s="5"/>
-    </row>
-    <row r="535" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S534" s="7"/>
+      <c r="T534" s="7"/>
+    </row>
+    <row r="535" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F535" s="3"/>
       <c r="G535" s="5"/>
-    </row>
-    <row r="536" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S535" s="7"/>
+      <c r="T535" s="7"/>
+    </row>
+    <row r="536" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F536" s="3"/>
       <c r="G536" s="5"/>
-    </row>
-    <row r="537" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S536" s="7"/>
+      <c r="T536" s="7"/>
+    </row>
+    <row r="537" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F537" s="3"/>
       <c r="G537" s="5"/>
-    </row>
-    <row r="538" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S537" s="7"/>
+      <c r="T537" s="7"/>
+    </row>
+    <row r="538" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F538" s="3"/>
       <c r="G538" s="5"/>
-    </row>
-    <row r="539" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S538" s="7"/>
+      <c r="T538" s="7"/>
+    </row>
+    <row r="539" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F539" s="3"/>
       <c r="G539" s="5"/>
-    </row>
-    <row r="540" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S539" s="7"/>
+      <c r="T539" s="7"/>
+    </row>
+    <row r="540" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F540" s="3"/>
       <c r="G540" s="5"/>
-    </row>
-    <row r="541" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S540" s="7"/>
+      <c r="T540" s="7"/>
+    </row>
+    <row r="541" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F541" s="3"/>
       <c r="G541" s="5"/>
-    </row>
-    <row r="542" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S541" s="7"/>
+      <c r="T541" s="7"/>
+    </row>
+    <row r="542" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F542" s="3"/>
       <c r="G542" s="5"/>
-    </row>
-    <row r="543" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S542" s="7"/>
+      <c r="T542" s="7"/>
+    </row>
+    <row r="543" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F543" s="3"/>
       <c r="G543" s="5"/>
-    </row>
-    <row r="544" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S543" s="7"/>
+      <c r="T543" s="7"/>
+    </row>
+    <row r="544" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F544" s="3"/>
       <c r="G544" s="5"/>
-    </row>
-    <row r="545" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S544" s="7"/>
+      <c r="T544" s="7"/>
+    </row>
+    <row r="545" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F545" s="3"/>
       <c r="G545" s="5"/>
-    </row>
-    <row r="546" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S545" s="7"/>
+      <c r="T545" s="7"/>
+    </row>
+    <row r="546" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F546" s="3"/>
       <c r="G546" s="5"/>
-    </row>
-    <row r="547" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S546" s="7"/>
+      <c r="T546" s="7"/>
+    </row>
+    <row r="547" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F547" s="3"/>
       <c r="G547" s="5"/>
-    </row>
-    <row r="548" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S547" s="7"/>
+      <c r="T547" s="7"/>
+    </row>
+    <row r="548" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F548" s="3"/>
       <c r="G548" s="5"/>
-    </row>
-    <row r="549" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S548" s="7"/>
+      <c r="T548" s="7"/>
+    </row>
+    <row r="549" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F549" s="3"/>
       <c r="G549" s="5"/>
-    </row>
-    <row r="550" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S549" s="7"/>
+      <c r="T549" s="7"/>
+    </row>
+    <row r="550" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F550" s="3"/>
       <c r="G550" s="5"/>
-    </row>
-    <row r="551" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S550" s="7"/>
+      <c r="T550" s="7"/>
+    </row>
+    <row r="551" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F551" s="3"/>
       <c r="G551" s="5"/>
-    </row>
-    <row r="552" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S551" s="7"/>
+      <c r="T551" s="7"/>
+    </row>
+    <row r="552" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F552" s="3"/>
       <c r="G552" s="5"/>
-    </row>
-    <row r="553" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S552" s="7"/>
+      <c r="T552" s="7"/>
+    </row>
+    <row r="553" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F553" s="3"/>
       <c r="G553" s="5"/>
-    </row>
-    <row r="554" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S553" s="7"/>
+      <c r="T553" s="7"/>
+    </row>
+    <row r="554" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F554" s="3"/>
       <c r="G554" s="5"/>
-    </row>
-    <row r="555" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S554" s="7"/>
+      <c r="T554" s="7"/>
+    </row>
+    <row r="555" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F555" s="3"/>
       <c r="G555" s="5"/>
-    </row>
-    <row r="556" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S555" s="7"/>
+      <c r="T555" s="7"/>
+    </row>
+    <row r="556" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F556" s="3"/>
       <c r="G556" s="5"/>
-    </row>
-    <row r="557" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S556" s="7"/>
+      <c r="T556" s="7"/>
+    </row>
+    <row r="557" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F557" s="3"/>
       <c r="G557" s="5"/>
-    </row>
-    <row r="558" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S557" s="7"/>
+      <c r="T557" s="7"/>
+    </row>
+    <row r="558" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F558" s="3"/>
       <c r="G558" s="5"/>
-    </row>
-    <row r="559" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S558" s="7"/>
+      <c r="T558" s="7"/>
+    </row>
+    <row r="559" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F559" s="3"/>
       <c r="G559" s="5"/>
-    </row>
-    <row r="560" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S559" s="7"/>
+      <c r="T559" s="7"/>
+    </row>
+    <row r="560" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F560" s="3"/>
       <c r="G560" s="5"/>
-    </row>
-    <row r="561" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S560" s="7"/>
+      <c r="T560" s="7"/>
+    </row>
+    <row r="561" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F561" s="3"/>
       <c r="G561" s="5"/>
-    </row>
-    <row r="562" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S561" s="7"/>
+      <c r="T561" s="7"/>
+    </row>
+    <row r="562" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F562" s="3"/>
       <c r="G562" s="5"/>
-    </row>
-    <row r="563" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S562" s="7"/>
+      <c r="T562" s="7"/>
+    </row>
+    <row r="563" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F563" s="3"/>
       <c r="G563" s="5"/>
-    </row>
-    <row r="564" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S563" s="7"/>
+      <c r="T563" s="7"/>
+    </row>
+    <row r="564" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F564" s="3"/>
       <c r="G564" s="5"/>
-    </row>
-    <row r="565" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S564" s="7"/>
+      <c r="T564" s="7"/>
+    </row>
+    <row r="565" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F565" s="3"/>
       <c r="G565" s="5"/>
-    </row>
-    <row r="566" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S565" s="7"/>
+      <c r="T565" s="7"/>
+    </row>
+    <row r="566" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F566" s="3"/>
       <c r="G566" s="5"/>
-    </row>
-    <row r="567" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S566" s="7"/>
+      <c r="T566" s="7"/>
+    </row>
+    <row r="567" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F567" s="3"/>
       <c r="G567" s="5"/>
-    </row>
-    <row r="568" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S567" s="7"/>
+      <c r="T567" s="7"/>
+    </row>
+    <row r="568" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F568" s="3"/>
       <c r="G568" s="5"/>
-    </row>
-    <row r="569" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S568" s="7"/>
+      <c r="T568" s="7"/>
+    </row>
+    <row r="569" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F569" s="3"/>
       <c r="G569" s="5"/>
-    </row>
-    <row r="570" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S569" s="7"/>
+      <c r="T569" s="7"/>
+    </row>
+    <row r="570" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F570" s="3"/>
       <c r="G570" s="5"/>
-    </row>
-    <row r="571" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S570" s="7"/>
+      <c r="T570" s="7"/>
+    </row>
+    <row r="571" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F571" s="3"/>
       <c r="G571" s="5"/>
-    </row>
-    <row r="572" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S571" s="7"/>
+      <c r="T571" s="7"/>
+    </row>
+    <row r="572" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F572" s="3"/>
       <c r="G572" s="5"/>
-    </row>
-    <row r="573" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S572" s="7"/>
+      <c r="T572" s="7"/>
+    </row>
+    <row r="573" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F573" s="3"/>
       <c r="G573" s="5"/>
-    </row>
-    <row r="574" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S573" s="7"/>
+      <c r="T573" s="7"/>
+    </row>
+    <row r="574" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F574" s="3"/>
       <c r="G574" s="5"/>
-    </row>
-    <row r="575" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S574" s="7"/>
+      <c r="T574" s="7"/>
+    </row>
+    <row r="575" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F575" s="3"/>
       <c r="G575" s="5"/>
-    </row>
-    <row r="576" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S575" s="7"/>
+      <c r="T575" s="7"/>
+    </row>
+    <row r="576" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F576" s="3"/>
       <c r="G576" s="5"/>
-    </row>
-    <row r="577" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S576" s="7"/>
+      <c r="T576" s="7"/>
+    </row>
+    <row r="577" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F577" s="3"/>
       <c r="G577" s="5"/>
-    </row>
-    <row r="578" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S577" s="7"/>
+      <c r="T577" s="7"/>
+    </row>
+    <row r="578" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F578" s="3"/>
       <c r="G578" s="5"/>
-    </row>
-    <row r="579" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S578" s="7"/>
+      <c r="T578" s="7"/>
+    </row>
+    <row r="579" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F579" s="3"/>
       <c r="G579" s="5"/>
-    </row>
-    <row r="580" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S579" s="7"/>
+      <c r="T579" s="7"/>
+    </row>
+    <row r="580" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F580" s="3"/>
       <c r="G580" s="5"/>
-    </row>
-    <row r="581" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S580" s="7"/>
+      <c r="T580" s="7"/>
+    </row>
+    <row r="581" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F581" s="3"/>
       <c r="G581" s="5"/>
-    </row>
-    <row r="582" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S581" s="7"/>
+      <c r="T581" s="7"/>
+    </row>
+    <row r="582" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F582" s="3"/>
       <c r="G582" s="5"/>
-    </row>
-    <row r="583" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S582" s="7"/>
+      <c r="T582" s="7"/>
+    </row>
+    <row r="583" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F583" s="3"/>
       <c r="G583" s="5"/>
-    </row>
-    <row r="584" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="S583" s="7"/>
+      <c r="T583" s="7"/>
+    </row>
+    <row r="584" spans="6:20" x14ac:dyDescent="0.25">
       <c r="G584" s="5"/>
+      <c r="S584" s="7"/>
+      <c r="T584" s="7"/>
+    </row>
+    <row r="585" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S585" s="7"/>
+      <c r="T585" s="7"/>
+    </row>
+    <row r="586" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S586" s="7"/>
+      <c r="T586" s="7"/>
+    </row>
+    <row r="587" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S587" s="7"/>
+      <c r="T587" s="7"/>
+    </row>
+    <row r="588" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S588" s="7"/>
+      <c r="T588" s="7"/>
+    </row>
+    <row r="589" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S589" s="7"/>
+      <c r="T589" s="7"/>
+    </row>
+    <row r="590" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S590" s="7"/>
+      <c r="T590" s="7"/>
+    </row>
+    <row r="591" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S591" s="7"/>
+      <c r="T591" s="7"/>
+    </row>
+    <row r="592" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S592" s="7"/>
+      <c r="T592" s="7"/>
+    </row>
+    <row r="593" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S593" s="7"/>
+      <c r="T593" s="7"/>
+    </row>
+    <row r="594" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S594" s="7"/>
+      <c r="T594" s="7"/>
+    </row>
+    <row r="595" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S595" s="7"/>
+      <c r="T595" s="7"/>
+    </row>
+    <row r="596" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S596" s="7"/>
+      <c r="T596" s="7"/>
+    </row>
+    <row r="597" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S597" s="7"/>
+      <c r="T597" s="7"/>
+    </row>
+    <row r="598" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S598" s="7"/>
+      <c r="T598" s="7"/>
+    </row>
+    <row r="599" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S599" s="7"/>
+      <c r="T599" s="7"/>
+    </row>
+    <row r="600" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S600" s="7"/>
+      <c r="T600" s="7"/>
+    </row>
+    <row r="601" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S601" s="7"/>
+      <c r="T601" s="7"/>
+    </row>
+    <row r="602" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S602" s="7"/>
+      <c r="T602" s="7"/>
+    </row>
+    <row r="603" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S603" s="7"/>
+      <c r="T603" s="7"/>
+    </row>
+    <row r="604" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S604" s="7"/>
+      <c r="T604" s="7"/>
+    </row>
+    <row r="605" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S605" s="7"/>
+      <c r="T605" s="7"/>
+    </row>
+    <row r="606" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S606" s="7"/>
+      <c r="T606" s="7"/>
+    </row>
+    <row r="607" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S607" s="7"/>
+      <c r="T607" s="7"/>
+    </row>
+    <row r="608" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S608" s="7"/>
+      <c r="T608" s="7"/>
+    </row>
+    <row r="609" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S609" s="7"/>
+      <c r="T609" s="7"/>
+    </row>
+    <row r="610" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S610" s="7"/>
+      <c r="T610" s="7"/>
+    </row>
+    <row r="611" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S611" s="7"/>
+      <c r="T611" s="7"/>
+    </row>
+    <row r="612" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S612" s="7"/>
+      <c r="T612" s="7"/>
+    </row>
+    <row r="613" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S613" s="7"/>
+      <c r="T613" s="7"/>
+    </row>
+    <row r="614" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S614" s="7"/>
+      <c r="T614" s="7"/>
+    </row>
+    <row r="615" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S615" s="7"/>
+      <c r="T615" s="7"/>
+    </row>
+    <row r="616" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S616" s="7"/>
+      <c r="T616" s="7"/>
+    </row>
+    <row r="617" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S617" s="7"/>
+      <c r="T617" s="7"/>
+    </row>
+    <row r="618" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S618" s="7"/>
+      <c r="T618" s="7"/>
+    </row>
+    <row r="619" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S619" s="7"/>
+      <c r="T619" s="7"/>
+    </row>
+    <row r="620" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S620" s="7"/>
+      <c r="T620" s="7"/>
+    </row>
+    <row r="621" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S621" s="7"/>
+      <c r="T621" s="7"/>
+    </row>
+    <row r="622" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S622" s="7"/>
+      <c r="T622" s="7"/>
+    </row>
+    <row r="623" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S623" s="7"/>
+      <c r="T623" s="7"/>
+    </row>
+    <row r="624" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S624" s="7"/>
+      <c r="T624" s="7"/>
+    </row>
+    <row r="625" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S625" s="7"/>
+      <c r="T625" s="7"/>
+    </row>
+    <row r="626" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S626" s="7"/>
+      <c r="T626" s="7"/>
+    </row>
+    <row r="627" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S627" s="7"/>
+      <c r="T627" s="7"/>
+    </row>
+    <row r="628" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S628" s="7"/>
+      <c r="T628" s="7"/>
+    </row>
+    <row r="629" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S629" s="7"/>
+      <c r="T629" s="7"/>
+    </row>
+    <row r="630" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S630" s="7"/>
+      <c r="T630" s="7"/>
+    </row>
+    <row r="631" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S631" s="7"/>
+      <c r="T631" s="7"/>
+    </row>
+    <row r="632" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S632" s="7"/>
+      <c r="T632" s="7"/>
+    </row>
+    <row r="633" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S633" s="7"/>
+      <c r="T633" s="7"/>
+    </row>
+    <row r="634" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S634" s="7"/>
+      <c r="T634" s="7"/>
+    </row>
+    <row r="635" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S635" s="7"/>
+      <c r="T635" s="7"/>
+    </row>
+    <row r="636" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S636" s="7"/>
+      <c r="T636" s="7"/>
+    </row>
+    <row r="637" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S637" s="7"/>
+      <c r="T637" s="7"/>
+    </row>
+    <row r="638" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S638" s="7"/>
+      <c r="T638" s="7"/>
+    </row>
+    <row r="639" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S639" s="7"/>
+      <c r="T639" s="7"/>
+    </row>
+    <row r="640" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S640" s="7"/>
+      <c r="T640" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>